--- a/99-0thers/case_collector/1111.xlsx
+++ b/99-0thers/case_collector/1111.xlsx
@@ -12339,7 +12339,7 @@
       <c r="A3" s="13" t="n"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>河北银行</t>
+          <t>四川银行</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
@@ -12365,7 +12365,7 @@
       <c r="A4" s="13" t="n"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陕西资产管理股份有限公司</t>
+          <t>上海农商行</t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
@@ -12390,7 +12390,7 @@
       <c r="A5" s="13" t="n"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>潍坊银行</t>
+          <t>陕西资产管理股份有限公司</t>
         </is>
       </c>
       <c r="C5" s="10" t="inlineStr">
@@ -12415,7 +12415,7 @@
       <c r="A6" s="13" t="n"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海农商</t>
+          <t>郑州银行</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -12440,7 +12440,7 @@
       <c r="A7" s="13" t="n"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>平安银行</t>
+          <t>华润银行</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
@@ -12465,7 +12465,7 @@
       <c r="A8" s="13" t="n"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>红塔银行</t>
+          <t>云南红塔银行</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
@@ -12490,7 +12490,7 @@
       <c r="A9" s="13" t="n"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>云南红塔银行</t>
+          <t>中广核财务公司</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -12515,7 +12515,7 @@
       <c r="A10" s="13" t="n"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中广核财务公司</t>
+          <t>宁波银行</t>
         </is>
       </c>
       <c r="C10" s="10" t="inlineStr">
@@ -12540,7 +12540,7 @@
       <c r="A11" s="13" t="n"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>承德银行</t>
+          <t>平安银行</t>
         </is>
       </c>
       <c r="C11" s="10" t="inlineStr">
@@ -12565,7 +12565,7 @@
       <c r="A12" s="13" t="n"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>宁波银行</t>
+          <t>中国电财</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
@@ -12615,7 +12615,7 @@
       <c r="A14" s="13" t="n"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>齐鲁银行</t>
+          <t>大连银行</t>
         </is>
       </c>
       <c r="C14" s="10" t="inlineStr">
@@ -12640,7 +12640,7 @@
       <c r="A15" s="13" t="n"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>四川银行</t>
+          <t>红塔银行</t>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr">
@@ -12665,7 +12665,7 @@
       <c r="A16" s="13" t="n"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>上海农商行</t>
+          <t>上海农商</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -12690,7 +12690,7 @@
       <c r="A17" s="13" t="n"/>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>郑州银行</t>
+          <t>恒丰银行</t>
         </is>
       </c>
       <c r="C17" s="10" t="inlineStr">
@@ -12715,7 +12715,7 @@
       <c r="A18" s="13" t="n"/>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>烟台银行</t>
+          <t>齐鲁银行</t>
         </is>
       </c>
       <c r="C18" s="10" t="inlineStr">
@@ -12740,7 +12740,7 @@
       <c r="A19" s="13" t="n"/>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>华润银行</t>
+          <t>烟台银行</t>
         </is>
       </c>
       <c r="C19" s="10" t="inlineStr">
@@ -12765,7 +12765,7 @@
       <c r="A20" s="13" t="n"/>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>大连银行</t>
+          <t>潍坊银行</t>
         </is>
       </c>
       <c r="C20" s="10" t="inlineStr">
@@ -12790,7 +12790,7 @@
       <c r="A21" s="13" t="n"/>
       <c r="B21" s="13" t="inlineStr">
         <is>
-          <t>中国电财</t>
+          <t>河北银行</t>
         </is>
       </c>
       <c r="C21" s="10" t="inlineStr">
@@ -12815,7 +12815,7 @@
       <c r="A22" s="13" t="n"/>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>恒丰银行</t>
+          <t>承德银行</t>
         </is>
       </c>
       <c r="C22" s="10" t="inlineStr">

--- a/99-0thers/case_collector/1111.xlsx
+++ b/99-0thers/case_collector/1111.xlsx
@@ -1569,25 +1569,25 @@
     <row r="4" ht="15.15" customFormat="1" customHeight="1" s="57">
       <c r="A4" s="53" t="inlineStr">
         <is>
-          <t>交通银行2024-2027年开发服务采购框架协议</t>
+          <t>企业级数据仓库迁移项目（二期）项目</t>
         </is>
       </c>
       <c r="B4" s="54" t="inlineStr">
         <is>
-          <t>100-200</t>
+          <t>&lt;100</t>
         </is>
       </c>
       <c r="C4" s="54" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D4" s="54" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="E4" s="54" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>上海农商行</t>
         </is>
       </c>
       <c r="F4" s="54">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="J4" s="55" t="inlineStr">
         <is>
-          <t>金融业务1C部</t>
+          <t>金融业务5E部</t>
         </is>
       </c>
       <c r="K4" s="55" t="inlineStr">
         <is>
-          <t>长亮金服华南业务2部</t>
+          <t>/</t>
         </is>
       </c>
       <c r="L4" s="55" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>奚昊</t>
         </is>
       </c>
       <c r="M4" s="55" t="n"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="O4" s="55" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据迁移</t>
         </is>
       </c>
       <c r="P4" s="55" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="AC4" s="54" t="inlineStr">
         <is>
-          <t>2024.01-2027.01</t>
+          <t>2023.05-2023.11</t>
         </is>
       </c>
       <c r="AD4" s="54" t="inlineStr">
@@ -1718,17 +1718,17 @@
       <c r="AG4" s="54" t="n"/>
       <c r="AH4" s="54" t="inlineStr">
         <is>
-          <t>华南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="AI4" s="54" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>焦郁17317825496</t>
         </is>
       </c>
       <c r="AJ4" s="54" t="inlineStr">
         <is>
-          <t>人力外包</t>
+          <t>数据迁移集成测试</t>
         </is>
       </c>
       <c r="AK4" s="53" t="inlineStr">
@@ -1740,7 +1740,7 @@
     <row r="5" ht="15.15" customFormat="1" customHeight="1" s="57">
       <c r="A5" s="53" t="inlineStr">
         <is>
-          <t>云南红塔银行数字普惠系统全普一期项目-模型平台配合改造项目</t>
+          <t>上海农商行2023年度内部评级系统、风险加权资产计量系统（C模式）框架协议（2023.3.24-2024.6.30）-2023年结算</t>
         </is>
       </c>
       <c r="B5" s="54" t="inlineStr">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="C5" s="54" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D5" s="54" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="E5" s="54" t="inlineStr">
         <is>
-          <t>红塔银行</t>
+          <t>上海农商银行</t>
         </is>
       </c>
       <c r="F5" s="54">
@@ -1779,17 +1779,17 @@
       </c>
       <c r="J5" s="55" t="inlineStr">
         <is>
-          <t>金融业务3E部</t>
+          <t>风险业务1部</t>
         </is>
       </c>
       <c r="K5" s="55" t="inlineStr">
         <is>
-          <t>金融业务三部</t>
+          <t>风险业务5部</t>
         </is>
       </c>
       <c r="L5" s="55" t="inlineStr">
         <is>
-          <t>白晶晶</t>
+          <t>陈亮</t>
         </is>
       </c>
       <c r="M5" s="55" t="n"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="P5" s="55" t="inlineStr">
         <is>
-          <t>外部数据管理平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q5" s="55" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="AC5" s="54" t="inlineStr">
         <is>
-          <t>2024.7-2024.12</t>
+          <t>2023.07-2023.12</t>
         </is>
       </c>
       <c r="AD5" s="54" t="inlineStr">
@@ -1889,12 +1889,12 @@
       <c r="AG5" s="54" t="n"/>
       <c r="AH5" s="54" t="inlineStr">
         <is>
-          <t>西南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="AI5" s="54" t="inlineStr">
         <is>
-          <t>张轶18087235505</t>
+          <t>孙麟舔13262758110</t>
         </is>
       </c>
       <c r="AJ5" s="54" t="inlineStr">
@@ -1911,16 +1911,16 @@
     <row r="6" ht="15.15" customHeight="1" s="59">
       <c r="A6" s="10" t="inlineStr">
         <is>
-          <t>上海农商行2024年度信用风险集市系统（C模式）框架协议（2024.7.1-2025.6.30）—2024年结算</t>
+          <t>上海农村商业银行股份有限公司2023年度企业级数据仓库和数据模型系统增选开发维护服务（C模式）框架</t>
         </is>
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>&lt;100</t>
+          <t>200-300</t>
         </is>
       </c>
       <c r="C6" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="E6" s="10" t="inlineStr">
         <is>
-          <t>上海农商</t>
+          <t>上海农商行</t>
         </is>
       </c>
       <c r="F6" s="10">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="J6" s="10" t="inlineStr">
         <is>
-          <t>金融业务12C部</t>
+          <t>金融业务5E部</t>
         </is>
       </c>
       <c r="K6" s="10" t="inlineStr">
@@ -1960,37 +1960,37 @@
       </c>
       <c r="L6" s="10" t="inlineStr">
         <is>
-          <t>施浩</t>
+          <t>梅燕</t>
         </is>
       </c>
       <c r="N6" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据架构咨询规划，数据模型设计</t>
         </is>
       </c>
       <c r="O6" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="P6" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>调度平台</t>
         </is>
       </c>
       <c r="Q6" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据模型管理模块</t>
         </is>
       </c>
       <c r="R6" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据模型，制度流程，制度流程</t>
         </is>
       </c>
       <c r="S6" s="10" t="inlineStr">
         <is>
-          <t>风险集市</t>
+          <t>统一数据集市</t>
         </is>
       </c>
       <c r="T6" s="10" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="W6" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>统一CRM</t>
         </is>
       </c>
       <c r="X6" s="10" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="AC6" s="10" t="inlineStr">
         <is>
-          <t>2024.07-2024.12</t>
+          <t>2023.9-2023.12</t>
         </is>
       </c>
       <c r="AD6" s="10" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="AI6" s="40" t="inlineStr">
         <is>
-          <t>孙麟添15821600081</t>
+          <t>焦郁17317825496</t>
         </is>
       </c>
       <c r="AJ6" s="40" t="inlineStr">
@@ -2081,25 +2081,25 @@
     <row r="7" ht="15.15" customHeight="1" s="59">
       <c r="A7" s="10" t="inlineStr">
         <is>
-          <t>上海农商银行企业级数据仓库二代模型模块C模式增补初中级人员项目</t>
+          <t>东亚银行标签平台</t>
         </is>
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>200-300</t>
+          <t>&lt;100</t>
         </is>
       </c>
       <c r="C7" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
       <c r="E7" s="10" t="inlineStr">
         <is>
-          <t>上海农商行</t>
+          <t>东亚银行</t>
         </is>
       </c>
       <c r="F7" s="10">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="J7" s="10" t="inlineStr">
         <is>
-          <t>金融业务12C部</t>
+          <t>营销业务2部</t>
         </is>
       </c>
       <c r="K7" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>营销业务部</t>
         </is>
       </c>
       <c r="L7" s="10" t="inlineStr">
         <is>
-          <t>尹逸颉</t>
+          <t>樊伟</t>
         </is>
       </c>
       <c r="N7" s="10" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="O7" s="10" t="inlineStr">
         <is>
-          <t>数据仓库</t>
+          <t>/</t>
         </is>
       </c>
       <c r="P7" s="10" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="T7" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>标签管理平台</t>
         </is>
       </c>
       <c r="U7" s="10" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="AC7" s="10" t="inlineStr">
         <is>
-          <t>2024.07-2024.12</t>
+          <t>2023.09-2024.01</t>
         </is>
       </c>
       <c r="AD7" s="10" t="inlineStr">
@@ -2229,12 +2229,12 @@
       <c r="AG7" s="40" t="n"/>
       <c r="AH7" s="40" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>华南</t>
         </is>
       </c>
       <c r="AI7" s="40" t="inlineStr">
         <is>
-          <t>焦郁17317825496</t>
+          <t>罗军</t>
         </is>
       </c>
       <c r="AJ7" s="40" t="inlineStr">
@@ -2251,25 +2251,25 @@
     <row r="8" ht="15.15" customHeight="1" s="59">
       <c r="A8" s="10" t="inlineStr">
         <is>
-          <t>中国电财-2024年数据管理及数据共享服务系统（五期）-数据工程项目-成本</t>
+          <t>东莞银行数据治理项目</t>
         </is>
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>400-500</t>
+          <t>&lt;100</t>
         </is>
       </c>
       <c r="C8" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>中国电财</t>
+          <t>东莞银行</t>
         </is>
       </c>
       <c r="F8" s="10">
@@ -2290,17 +2290,17 @@
       </c>
       <c r="J8" s="10" t="inlineStr">
         <is>
-          <t>金融业务9E部</t>
+          <t>数据资产管理部</t>
         </is>
       </c>
       <c r="K8" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据资产管理1部</t>
         </is>
       </c>
       <c r="L8" s="10" t="inlineStr">
         <is>
-          <t>杨俊锋</t>
+          <t>支文英</t>
         </is>
       </c>
       <c r="N8" s="10" t="inlineStr">
@@ -2310,32 +2310,32 @@
       </c>
       <c r="O8" s="10" t="inlineStr">
         <is>
-          <t>数据仓库，实时数据平台,非结构化数据平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="P8" s="10" t="inlineStr">
         <is>
-          <t>调度平台，数据补录平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q8" s="10" t="inlineStr">
         <is>
-          <t>数据标准管理模块，元数据管理模块，数据质量管理模块，数据资产管理模块,数据安全管理模块,数据模型管理模块，数据需求管理模块</t>
+          <t>/</t>
         </is>
       </c>
       <c r="R8" s="10" t="inlineStr">
         <is>
-          <t>数据标准，数据质量，元数据，数据安全，数据资产盘点，数据模型</t>
+          <t>数据标准，数据质量，元数据，数据安全，数据资产盘点，数据模型，主数据，制度流程，组织架构</t>
         </is>
       </c>
       <c r="S8" s="10" t="inlineStr">
         <is>
-          <t>监管集市</t>
+          <t>/</t>
         </is>
       </c>
       <c r="T8" s="10" t="inlineStr">
         <is>
-          <t>指标库、标签库</t>
+          <t>/</t>
         </is>
       </c>
       <c r="U8" s="10" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="V8" s="10" t="inlineStr">
         <is>
-          <t>PC端管理驾驶舱，移动端管理驾驶舱，报表平台，大屏</t>
+          <t>/</t>
         </is>
       </c>
       <c r="W8" s="10" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="Y8" s="10" t="inlineStr">
         <is>
-          <t>统一监管报送，1104，人行金融统计报送（大集中），人行利率报送，EAST</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Z8" s="10" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="AC8" s="10" t="inlineStr">
         <is>
-          <t>2024.02-2025.03</t>
+          <t>2023.01-2024.07</t>
         </is>
       </c>
       <c r="AD8" s="10" t="inlineStr">
@@ -2399,12 +2399,12 @@
       <c r="AG8" s="40" t="n"/>
       <c r="AH8" s="40" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>华南</t>
         </is>
       </c>
       <c r="AI8" s="40" t="inlineStr">
         <is>
-          <t>陈曦：18601064933</t>
+          <t>钟青 13326892506</t>
         </is>
       </c>
       <c r="AJ8" s="40" t="inlineStr">
@@ -2421,16 +2421,16 @@
     <row r="9" ht="15.15" customHeight="1" s="59">
       <c r="A9" s="10" t="inlineStr">
         <is>
-          <t>中国电财-2024年数据管理及数据共享服务系统（五期）-数据工程项目-资本</t>
+          <t>中信财务数据治理和数据中台建设项目</t>
         </is>
       </c>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>100-200</t>
+          <t>300-400</t>
         </is>
       </c>
       <c r="C9" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>中国电财</t>
+          <t>中信财务</t>
         </is>
       </c>
       <c r="F9" s="10">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="K9" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据资产管理2部</t>
         </is>
       </c>
       <c r="L9" s="10" t="inlineStr">
         <is>
-          <t>刘岩</t>
+          <t>张悦</t>
         </is>
       </c>
       <c r="N9" s="10" t="inlineStr">
@@ -2480,32 +2480,32 @@
       </c>
       <c r="O9" s="10" t="inlineStr">
         <is>
-          <t>数据仓库，实时数据平台,非结构化数据平台</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="P9" s="10" t="inlineStr">
         <is>
-          <t>调度平台，数据补录平台</t>
+          <t>数据交换平台，调度平台，数据补录平台</t>
         </is>
       </c>
       <c r="Q9" s="10" t="inlineStr">
         <is>
-          <t>数据标准管理模块，元数据管理模块，数据质量管理模块，数据资产管理模块,数据安全管理模块,数据模型管理模块，数据需求管理模块</t>
+          <t>数据标准管理模块，元数据管理模块，数据质量管理模块，数据资产管理模块</t>
         </is>
       </c>
       <c r="R9" s="10" t="inlineStr">
         <is>
-          <t>数据标准，数据质量，元数据，数据安全，数据资产盘点，数据模型</t>
+          <t>/</t>
         </is>
       </c>
       <c r="S9" s="10" t="inlineStr">
         <is>
-          <t>监管集市</t>
+          <t>经营分析集市</t>
         </is>
       </c>
       <c r="T9" s="10" t="inlineStr">
         <is>
-          <t>指标库、标签库</t>
+          <t>指标梳理，指标库</t>
         </is>
       </c>
       <c r="U9" s="10" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V9" s="10" t="inlineStr">
         <is>
-          <t>PC端管理驾驶舱，移动端管理驾驶舱，报表平台，大屏</t>
+          <t>PC端管理驾驶舱，报表平台</t>
         </is>
       </c>
       <c r="W9" s="10" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="Y9" s="10" t="inlineStr">
         <is>
-          <t>统一监管报送，1104，人行金融统计报送（大集中），人行利率报送，EAST</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Z9" s="10" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="AC9" s="10" t="inlineStr">
         <is>
-          <t>2024.02-2025.03</t>
+          <t>2023.08-2024.03</t>
         </is>
       </c>
       <c r="AD9" s="10" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="AI9" s="40" t="inlineStr">
         <is>
-          <t>陈曦：18601064933</t>
+          <t>王心成15086982266</t>
         </is>
       </c>
       <c r="AJ9" s="40" t="inlineStr">
@@ -2591,7 +2591,7 @@
     <row r="10" ht="15.15" customHeight="1" s="59">
       <c r="A10" s="10" t="inlineStr">
         <is>
-          <t>中广核财务1104表样及取数逻辑更新软件升级服务合同</t>
+          <t>中化财务数据平台2023年优化升级项目</t>
         </is>
       </c>
       <c r="B10" s="10" t="inlineStr">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C10" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="E10" s="10" t="inlineStr">
         <is>
-          <t>中广核财务公司</t>
+          <t>中化财务</t>
         </is>
       </c>
       <c r="F10" s="10">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J10" s="10" t="inlineStr">
         <is>
-          <t>金融业务6G部</t>
+          <t>金融业务9E部</t>
         </is>
       </c>
       <c r="K10" s="10" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L10" s="10" t="inlineStr">
         <is>
-          <t>邝权</t>
+          <t>孙迎鹏</t>
         </is>
       </c>
       <c r="N10" s="10" t="inlineStr">
@@ -2655,12 +2655,12 @@
       </c>
       <c r="P10" s="10" t="inlineStr">
         <is>
-          <t>监管报送平台</t>
+          <t>调度平台</t>
         </is>
       </c>
       <c r="Q10" s="10" t="inlineStr">
         <is>
-          <t>1104报送模块</t>
+          <t>/</t>
         </is>
       </c>
       <c r="R10" s="10" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="S10" s="10" t="inlineStr">
         <is>
-          <t>监管数据集市</t>
+          <t>监管集市</t>
         </is>
       </c>
       <c r="T10" s="10" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="V10" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>报表平台</t>
         </is>
       </c>
       <c r="W10" s="10" t="inlineStr">
@@ -2698,8 +2698,10 @@
           <t>/</t>
         </is>
       </c>
-      <c r="Y10" s="10" t="n">
-        <v>1104</v>
+      <c r="Y10" s="10" t="inlineStr">
+        <is>
+          <t>统一监管报送，1104，人行金融统计报送（大集中），人行利率报送，EAST</t>
+        </is>
       </c>
       <c r="Z10" s="10" t="inlineStr">
         <is>
@@ -2718,7 +2720,7 @@
       </c>
       <c r="AC10" s="10" t="inlineStr">
         <is>
-          <t>2024.04-2025.01</t>
+          <t>2023.08-2024.03</t>
         </is>
       </c>
       <c r="AD10" s="10" t="inlineStr">
@@ -2737,12 +2739,12 @@
       <c r="AG10" s="40" t="n"/>
       <c r="AH10" s="40" t="inlineStr">
         <is>
-          <t>华南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="AI10" s="40" t="inlineStr">
         <is>
-          <t>程衡18566288378</t>
+          <t>付鹏飞18911998594</t>
         </is>
       </c>
       <c r="AJ10" s="40" t="inlineStr">
@@ -2759,16 +2761,16 @@
     <row r="11" ht="15.15" customHeight="1" s="59">
       <c r="A11" s="10" t="inlineStr">
         <is>
-          <t>中广核财务监管报送系统运维服务合同</t>
+          <t>中国银行应用软件支持服务（MUREX）项目</t>
         </is>
       </c>
       <c r="B11" s="10" t="inlineStr">
         <is>
-          <t>&lt;100</t>
+          <t>300-400</t>
         </is>
       </c>
       <c r="C11" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
@@ -2777,7 +2779,7 @@
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>中广核财务公司</t>
+          <t>中国银行</t>
         </is>
       </c>
       <c r="F11" s="10">
@@ -2798,17 +2800,17 @@
       </c>
       <c r="J11" s="10" t="inlineStr">
         <is>
-          <t>金融业务6G部</t>
+          <t>资金业务部</t>
         </is>
       </c>
       <c r="K11" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>资金业务1部</t>
         </is>
       </c>
       <c r="L11" s="10" t="inlineStr">
         <is>
-          <t>邝权</t>
+          <t>康众</t>
         </is>
       </c>
       <c r="N11" s="10" t="inlineStr">
@@ -2818,17 +2820,17 @@
       </c>
       <c r="O11" s="10" t="inlineStr">
         <is>
-          <t>数据仓库</t>
+          <t>/</t>
         </is>
       </c>
       <c r="P11" s="10" t="inlineStr">
         <is>
-          <t>监管报送平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q11" s="10" t="inlineStr">
         <is>
-          <t>1104报送模块、金融基础数据报送模块、EAST报送模块、利率报备报送模块、人行大集中报送模块</t>
+          <t>/</t>
         </is>
       </c>
       <c r="R11" s="10" t="inlineStr">
@@ -2838,7 +2840,7 @@
       </c>
       <c r="S11" s="10" t="inlineStr">
         <is>
-          <t>监管数据集市</t>
+          <t>/</t>
         </is>
       </c>
       <c r="T11" s="10" t="inlineStr">
@@ -2868,12 +2870,12 @@
       </c>
       <c r="Y11" s="52" t="inlineStr">
         <is>
-          <t>统一监管报送，1104报送模块、金融基础数据报送模块、EAST报送模块、利率报备报送模块、人行大集中报送模块</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Z11" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>资金管理系统</t>
         </is>
       </c>
       <c r="AA11" s="10" t="inlineStr">
@@ -2888,7 +2890,7 @@
       </c>
       <c r="AC11" s="10" t="inlineStr">
         <is>
-          <t>2024.08-2025.07</t>
+          <t>2023.09-2024.06</t>
         </is>
       </c>
       <c r="AD11" s="10" t="inlineStr">
@@ -2907,12 +2909,12 @@
       <c r="AG11" s="40" t="n"/>
       <c r="AH11" s="40" t="inlineStr">
         <is>
-          <t>华南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="AI11" s="40" t="inlineStr">
         <is>
-          <t>程衡18566288378</t>
+          <t>谷鑫虎15311932639</t>
         </is>
       </c>
       <c r="AJ11" s="40" t="inlineStr">
@@ -2929,16 +2931,16 @@
     <row r="12" ht="15.15" customHeight="1" s="59">
       <c r="A12" s="10" t="inlineStr">
         <is>
-          <t>云南红塔银行信贷工厂外围系统配套改造项目-数据平台项目合同</t>
+          <t>中国银行股份有限公司银行卡数据运营服务项目</t>
         </is>
       </c>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>&lt;100</t>
+          <t>400-500</t>
         </is>
       </c>
       <c r="C12" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
@@ -2947,7 +2949,7 @@
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>云南红塔银行</t>
+          <t>中国银行卡中心</t>
         </is>
       </c>
       <c r="F12" s="10">
@@ -2968,7 +2970,7 @@
       </c>
       <c r="J12" s="10" t="inlineStr">
         <is>
-          <t>金融业务3E部</t>
+          <t>咨询业务2A部</t>
         </is>
       </c>
       <c r="K12" s="10" t="inlineStr">
@@ -2978,22 +2980,22 @@
       </c>
       <c r="L12" s="10" t="inlineStr">
         <is>
-          <t>李杨</t>
+          <t>贾浩</t>
         </is>
       </c>
       <c r="N12" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据架构咨询规划</t>
         </is>
       </c>
       <c r="O12" s="10" t="inlineStr">
         <is>
-          <t>数据仓库</t>
+          <t>/</t>
         </is>
       </c>
       <c r="P12" s="10" t="inlineStr">
         <is>
-          <t>数据交换平台、数据开发平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q12" s="10" t="inlineStr">
@@ -3018,7 +3020,7 @@
       </c>
       <c r="U12" s="10" t="inlineStr">
         <is>
-          <t>数据服务平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="V12" s="10" t="inlineStr">
@@ -3038,7 +3040,7 @@
       </c>
       <c r="Y12" s="10" t="inlineStr">
         <is>
-          <t>客户风险报送</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Z12" s="10" t="inlineStr">
@@ -3058,7 +3060,7 @@
       </c>
       <c r="AC12" s="10" t="inlineStr">
         <is>
-          <t>2024.05-2024.11</t>
+          <t>2023.08-2024.08</t>
         </is>
       </c>
       <c r="AD12" s="10" t="inlineStr">
@@ -3077,12 +3079,12 @@
       <c r="AG12" s="40" t="n"/>
       <c r="AH12" s="40" t="inlineStr">
         <is>
-          <t>西南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="AI12" s="40" t="inlineStr">
         <is>
-          <t>陈俊慧18611699767</t>
+          <t>李莹 010-66595670</t>
         </is>
       </c>
       <c r="AJ12" s="40" t="inlineStr">
@@ -3099,16 +3101,16 @@
     <row r="13" ht="15.15" customHeight="1" s="59">
       <c r="A13" s="10" t="inlineStr">
         <is>
-          <t>云南红塔银行信贷工厂外围系统配套改造项目-风控平台</t>
+          <t>红塔银行数据中台项目</t>
         </is>
       </c>
       <c r="B13" s="10" t="inlineStr">
         <is>
-          <t>&lt;100</t>
+          <t>100-200</t>
         </is>
       </c>
       <c r="C13" s="10" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
@@ -3138,17 +3140,17 @@
       </c>
       <c r="J13" s="10" t="inlineStr">
         <is>
-          <t>金融业务3E部</t>
+          <t>金融交付3E</t>
         </is>
       </c>
       <c r="K13" s="10" t="inlineStr">
         <is>
-          <t>金融业务三部</t>
+          <t>金融交付3部</t>
         </is>
       </c>
       <c r="L13" s="10" t="inlineStr">
         <is>
-          <t>高鹏丽</t>
+          <t>刘刚</t>
         </is>
       </c>
       <c r="N13" s="10" t="inlineStr">
@@ -3158,12 +3160,12 @@
       </c>
       <c r="O13" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据仓库，实时数据平台，数据湖，数仓迁移</t>
         </is>
       </c>
       <c r="P13" s="10" t="inlineStr">
         <is>
-          <t>外部数据管理平台</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q13" s="10" t="inlineStr">
@@ -3178,27 +3180,27 @@
       </c>
       <c r="S13" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>报表集市，监管集市</t>
         </is>
       </c>
       <c r="T13" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>指标管理平台，标签管理平台，指标梳理，标签梳理、指标库、标签库</t>
         </is>
       </c>
       <c r="U13" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据服务平台</t>
         </is>
       </c>
       <c r="V13" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>自助分析，PC端管理驾驶舱，报表平台</t>
         </is>
       </c>
       <c r="W13" s="10" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>客户画像，营销平台</t>
         </is>
       </c>
       <c r="X13" s="10" t="inlineStr">
@@ -3228,7 +3230,7 @@
       </c>
       <c r="AC13" s="10" t="inlineStr">
         <is>
-          <t>2024.7-2024.12</t>
+          <t>2023.10-2024.12</t>
         </is>
       </c>
       <c r="AD13" s="10" t="inlineStr">
@@ -3252,7 +3254,7 @@
       </c>
       <c r="AI13" s="40" t="inlineStr">
         <is>
-          <t>张轶18087235505</t>
+          <t>梁红兵13577702763</t>
         </is>
       </c>
       <c r="AJ13" s="40" t="inlineStr">
@@ -3267,3064 +3269,688 @@
       </c>
     </row>
     <row r="14" ht="15.15" customHeight="1" s="59">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>云南红塔银行文件传输平台国产化适配项目</t>
-        </is>
-      </c>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>云南红塔银行</t>
-        </is>
-      </c>
-      <c r="F14" s="10">
-        <f>IFERROR(VLOOKUP($E14,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="10">
-        <f>IFERROR(VLOOKUP($E14,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="10">
-        <f>IFERROR(VLOOKUP($E14,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="10">
-        <f>IF(VLOOKUP($E14,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E14,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J14" s="10" t="inlineStr">
-        <is>
-          <t>金融业务3E部</t>
-        </is>
-      </c>
-      <c r="K14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L14" s="10" t="inlineStr">
-        <is>
-          <t>刘红森</t>
-        </is>
-      </c>
-      <c r="N14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U14" s="10" t="inlineStr">
-        <is>
-          <t>数据服务平台</t>
-        </is>
-      </c>
-      <c r="V14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA14" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB14" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC14" s="10" t="inlineStr">
-        <is>
-          <t>2024.07-2024.11</t>
-        </is>
-      </c>
-      <c r="AD14" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE14" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A14, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF14" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A14, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="10" t="n"/>
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="10" t="n"/>
+      <c r="K14" s="10" t="n"/>
+      <c r="L14" s="10" t="n"/>
+      <c r="N14" s="10" t="n"/>
+      <c r="O14" s="10" t="n"/>
+      <c r="P14" s="10" t="n"/>
+      <c r="Q14" s="10" t="n"/>
+      <c r="R14" s="10" t="n"/>
+      <c r="S14" s="10" t="n"/>
+      <c r="T14" s="10" t="n"/>
+      <c r="U14" s="10" t="n"/>
+      <c r="V14" s="10" t="n"/>
+      <c r="W14" s="10" t="n"/>
+      <c r="X14" s="10" t="n"/>
+      <c r="Y14" s="10" t="n"/>
+      <c r="Z14" s="10" t="n"/>
+      <c r="AA14" s="10" t="n"/>
+      <c r="AB14" s="51" t="n"/>
+      <c r="AC14" s="10" t="n"/>
+      <c r="AD14" s="10" t="n"/>
+      <c r="AE14" s="10" t="n"/>
+      <c r="AF14" s="10" t="n"/>
       <c r="AG14" s="40" t="n"/>
-      <c r="AH14" s="40" t="inlineStr">
-        <is>
-          <t>西南</t>
-        </is>
-      </c>
-      <c r="AI14" s="40" t="inlineStr">
-        <is>
-          <t>李锦13388719846</t>
-        </is>
-      </c>
-      <c r="AJ14" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK14" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH14" s="40" t="n"/>
+      <c r="AI14" s="40" t="n"/>
+      <c r="AJ14" s="40" t="n"/>
+      <c r="AK14" s="16" t="n"/>
     </row>
     <row r="15" ht="15.15" customHeight="1" s="59">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>华润银行操作型数据存储系统等系统开发人力框架协议谈判</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>华润银行</t>
-        </is>
-      </c>
-      <c r="F15" s="10">
-        <f>IFERROR(VLOOKUP($E15,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G15" s="10">
-        <f>IFERROR(VLOOKUP($E15,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="10">
-        <f>IFERROR(VLOOKUP($E15,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="10">
-        <f>IF(VLOOKUP($E15,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E15,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J15" s="10" t="inlineStr">
-        <is>
-          <t>金融业务1D部</t>
-        </is>
-      </c>
-      <c r="K15" s="10" t="inlineStr">
-        <is>
-          <t>金融业务1D部</t>
-        </is>
-      </c>
-      <c r="L15" s="10" t="inlineStr">
-        <is>
-          <t>张倩云</t>
-        </is>
-      </c>
-      <c r="N15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U15" s="10" t="inlineStr">
-        <is>
-          <t>数据服务平台</t>
-        </is>
-      </c>
-      <c r="V15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA15" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB15" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC15" s="10" t="inlineStr">
-        <is>
-          <t>2023.01-2025.01</t>
-        </is>
-      </c>
-      <c r="AD15" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE15" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A15, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF15" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A15, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="10" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="10" t="n"/>
+      <c r="K15" s="10" t="n"/>
+      <c r="L15" s="10" t="n"/>
+      <c r="N15" s="10" t="n"/>
+      <c r="O15" s="10" t="n"/>
+      <c r="P15" s="10" t="n"/>
+      <c r="Q15" s="10" t="n"/>
+      <c r="R15" s="10" t="n"/>
+      <c r="S15" s="10" t="n"/>
+      <c r="T15" s="10" t="n"/>
+      <c r="U15" s="10" t="n"/>
+      <c r="V15" s="10" t="n"/>
+      <c r="W15" s="10" t="n"/>
+      <c r="X15" s="10" t="n"/>
+      <c r="Y15" s="10" t="n"/>
+      <c r="Z15" s="10" t="n"/>
+      <c r="AA15" s="10" t="n"/>
+      <c r="AB15" s="51" t="n"/>
+      <c r="AC15" s="10" t="n"/>
+      <c r="AD15" s="10" t="n"/>
+      <c r="AE15" s="10" t="n"/>
+      <c r="AF15" s="10" t="n"/>
       <c r="AG15" s="40" t="n"/>
-      <c r="AH15" s="40" t="inlineStr">
-        <is>
-          <t>华南</t>
-        </is>
-      </c>
-      <c r="AI15" s="40" t="inlineStr">
-        <is>
-          <t>陈俊慧18611699767</t>
-        </is>
-      </c>
-      <c r="AJ15" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK15" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH15" s="40" t="n"/>
+      <c r="AI15" s="40" t="n"/>
+      <c r="AJ15" s="40" t="n"/>
+      <c r="AK15" s="16" t="n"/>
     </row>
     <row r="16" ht="15.15" customHeight="1" s="59">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>四川银行2024年数字化应用技术服务采购项目-包件一：前端应用开发</t>
-        </is>
-      </c>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>200-300</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>四川银行</t>
-        </is>
-      </c>
-      <c r="F16" s="10">
-        <f>IFERROR(VLOOKUP($E16,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G16" s="10">
-        <f>IFERROR(VLOOKUP($E16,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="10">
-        <f>IFERROR(VLOOKUP($E16,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="10">
-        <f>IF(VLOOKUP($E16,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E16,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J16" s="10" t="inlineStr">
-        <is>
-          <t>金融业务3C部</t>
-        </is>
-      </c>
-      <c r="K16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L16" s="10" t="inlineStr">
-        <is>
-          <t>谢加志</t>
-        </is>
-      </c>
-      <c r="N16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U16" s="10" t="inlineStr">
-        <is>
-          <t>数据服务平台-基于行里前期开发的业绩平台做迭代开发</t>
-        </is>
-      </c>
-      <c r="V16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA16" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB16" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC16" s="10" t="inlineStr">
-        <is>
-          <t>2024.06-2025.0</t>
-        </is>
-      </c>
-      <c r="AD16" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE16" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A16, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF16" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A16, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="10" t="n"/>
+      <c r="K16" s="10" t="n"/>
+      <c r="L16" s="10" t="n"/>
+      <c r="N16" s="10" t="n"/>
+      <c r="O16" s="10" t="n"/>
+      <c r="P16" s="10" t="n"/>
+      <c r="Q16" s="10" t="n"/>
+      <c r="R16" s="10" t="n"/>
+      <c r="S16" s="10" t="n"/>
+      <c r="T16" s="10" t="n"/>
+      <c r="U16" s="10" t="n"/>
+      <c r="V16" s="10" t="n"/>
+      <c r="W16" s="10" t="n"/>
+      <c r="X16" s="10" t="n"/>
+      <c r="Y16" s="10" t="n"/>
+      <c r="Z16" s="10" t="n"/>
+      <c r="AA16" s="10" t="n"/>
+      <c r="AB16" s="51" t="n"/>
+      <c r="AC16" s="10" t="n"/>
+      <c r="AD16" s="10" t="n"/>
+      <c r="AE16" s="10" t="n"/>
+      <c r="AF16" s="10" t="n"/>
       <c r="AG16" s="40" t="n"/>
-      <c r="AH16" s="40" t="inlineStr">
-        <is>
-          <t>西南</t>
-        </is>
-      </c>
-      <c r="AI16" s="40" t="inlineStr">
-        <is>
-          <t>陶涛 18623555237</t>
-        </is>
-      </c>
-      <c r="AJ16" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK16" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH16" s="40" t="n"/>
+      <c r="AI16" s="40" t="n"/>
+      <c r="AJ16" s="40" t="n"/>
+      <c r="AK16" s="16" t="n"/>
     </row>
     <row r="17" ht="15.15" customHeight="1" s="59">
-      <c r="A17" s="10" t="inlineStr">
-        <is>
-          <t>大连银行资本计量系统操作风险损失数据收集模块项目</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>大连银行</t>
-        </is>
-      </c>
-      <c r="F17" s="10">
-        <f>IFERROR(VLOOKUP($E17,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="10">
-        <f>IFERROR(VLOOKUP($E17,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="10">
-        <f>IFERROR(VLOOKUP($E17,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="10">
-        <f>IF(VLOOKUP($E17,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E17,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J17" s="10" t="inlineStr">
-        <is>
-          <t>风险业务部</t>
-        </is>
-      </c>
-      <c r="K17" s="10" t="inlineStr">
-        <is>
-          <t>风险业务5部</t>
-        </is>
-      </c>
-      <c r="L17" s="10" t="inlineStr">
-        <is>
-          <t>王庆宁</t>
-        </is>
-      </c>
-      <c r="N17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA17" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB17" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC17" s="10" t="inlineStr">
-        <is>
-          <t>2024.07-2024.11</t>
-        </is>
-      </c>
-      <c r="AD17" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE17" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A17, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF17" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A17, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="10" t="n"/>
+      <c r="K17" s="10" t="n"/>
+      <c r="L17" s="10" t="n"/>
+      <c r="N17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
+      <c r="P17" s="10" t="n"/>
+      <c r="Q17" s="10" t="n"/>
+      <c r="R17" s="10" t="n"/>
+      <c r="S17" s="10" t="n"/>
+      <c r="T17" s="10" t="n"/>
+      <c r="U17" s="10" t="n"/>
+      <c r="V17" s="10" t="n"/>
+      <c r="W17" s="10" t="n"/>
+      <c r="X17" s="10" t="n"/>
+      <c r="Y17" s="10" t="n"/>
+      <c r="Z17" s="10" t="n"/>
+      <c r="AA17" s="10" t="n"/>
+      <c r="AB17" s="51" t="n"/>
+      <c r="AC17" s="10" t="n"/>
+      <c r="AD17" s="10" t="n"/>
+      <c r="AE17" s="10" t="n"/>
+      <c r="AF17" s="10" t="n"/>
       <c r="AG17" s="40" t="n"/>
-      <c r="AH17" s="40" t="inlineStr">
-        <is>
-          <t>东北</t>
-        </is>
-      </c>
-      <c r="AI17" s="40" t="inlineStr">
-        <is>
-          <t>王志会18624374921</t>
-        </is>
-      </c>
-      <c r="AJ17" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK17" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH17" s="40" t="n"/>
+      <c r="AI17" s="40" t="n"/>
+      <c r="AJ17" s="40" t="n"/>
+      <c r="AK17" s="16" t="n"/>
     </row>
     <row r="18" ht="15.15" customHeight="1" s="59">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">宁波银行个人风控中台自营渠道规则优化项目 </t>
-        </is>
-      </c>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>宁波银行</t>
-        </is>
-      </c>
-      <c r="F18" s="10">
-        <f>IFERROR(VLOOKUP($E18,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="10">
-        <f>IFERROR(VLOOKUP($E18,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="10">
-        <f>IFERROR(VLOOKUP($E18,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="10">
-        <f>IF(VLOOKUP($E18,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E18,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J18" s="10" t="inlineStr">
-        <is>
-          <t>风险业务4部</t>
-        </is>
-      </c>
-      <c r="K18" s="10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="L18" s="10" t="inlineStr">
-        <is>
-          <t>左万山</t>
-        </is>
-      </c>
-      <c r="N18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X18" s="10" t="inlineStr">
-        <is>
-          <t>风控决策平台产品</t>
-        </is>
-      </c>
-      <c r="Y18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA18" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB18" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC18" s="10" t="inlineStr">
-        <is>
-          <t>2024.05-2024.08</t>
-        </is>
-      </c>
-      <c r="AD18" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE18" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A18, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF18" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A18, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="10" t="n"/>
+      <c r="K18" s="10" t="n"/>
+      <c r="L18" s="10" t="n"/>
+      <c r="N18" s="10" t="n"/>
+      <c r="O18" s="10" t="n"/>
+      <c r="P18" s="10" t="n"/>
+      <c r="Q18" s="10" t="n"/>
+      <c r="R18" s="10" t="n"/>
+      <c r="S18" s="10" t="n"/>
+      <c r="T18" s="10" t="n"/>
+      <c r="U18" s="10" t="n"/>
+      <c r="V18" s="10" t="n"/>
+      <c r="W18" s="10" t="n"/>
+      <c r="X18" s="10" t="n"/>
+      <c r="Y18" s="10" t="n"/>
+      <c r="Z18" s="10" t="n"/>
+      <c r="AA18" s="10" t="n"/>
+      <c r="AB18" s="51" t="n"/>
+      <c r="AC18" s="10" t="n"/>
+      <c r="AD18" s="10" t="n"/>
+      <c r="AE18" s="10" t="n"/>
+      <c r="AF18" s="10" t="n"/>
       <c r="AG18" s="40" t="n"/>
-      <c r="AH18" s="40" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="AI18" s="40" t="inlineStr">
-        <is>
-          <t>刘文锋18845120517</t>
-        </is>
-      </c>
-      <c r="AJ18" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK18" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH18" s="40" t="n"/>
+      <c r="AI18" s="40" t="n"/>
+      <c r="AJ18" s="40" t="n"/>
+      <c r="AK18" s="16" t="n"/>
     </row>
     <row r="19" ht="15.15" customHeight="1" s="59">
-      <c r="A19" s="47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 宁波银行个人风控中台自营规则优化项目（单一来源采购）</t>
-        </is>
-      </c>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>宁波银行</t>
-        </is>
-      </c>
-      <c r="F19" s="10">
-        <f>IFERROR(VLOOKUP($E19,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="10">
-        <f>IFERROR(VLOOKUP($E19,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="10">
-        <f>IFERROR(VLOOKUP($E19,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="10">
-        <f>IF(VLOOKUP($E19,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E19,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J19" s="10" t="inlineStr">
-        <is>
-          <t>风险业务4部</t>
-        </is>
-      </c>
-      <c r="K19" s="10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="L19" s="10" t="inlineStr">
-        <is>
-          <t>左万山</t>
-        </is>
-      </c>
-      <c r="N19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X19" s="10" t="inlineStr">
-        <is>
-          <t>风控决策平台产品</t>
-        </is>
-      </c>
-      <c r="Y19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA19" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB19" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC19" s="10" t="inlineStr">
-        <is>
-          <t>2024.02-2024.05</t>
-        </is>
-      </c>
-      <c r="AD19" s="10" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="AE19" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A19, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF19" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A19, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A19" s="47" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="10" t="n"/>
+      <c r="K19" s="10" t="n"/>
+      <c r="L19" s="10" t="n"/>
+      <c r="N19" s="10" t="n"/>
+      <c r="O19" s="10" t="n"/>
+      <c r="P19" s="10" t="n"/>
+      <c r="Q19" s="10" t="n"/>
+      <c r="R19" s="10" t="n"/>
+      <c r="S19" s="10" t="n"/>
+      <c r="T19" s="10" t="n"/>
+      <c r="U19" s="10" t="n"/>
+      <c r="V19" s="10" t="n"/>
+      <c r="W19" s="10" t="n"/>
+      <c r="X19" s="10" t="n"/>
+      <c r="Y19" s="10" t="n"/>
+      <c r="Z19" s="10" t="n"/>
+      <c r="AA19" s="10" t="n"/>
+      <c r="AB19" s="51" t="n"/>
+      <c r="AC19" s="10" t="n"/>
+      <c r="AD19" s="10" t="n"/>
+      <c r="AE19" s="10" t="n"/>
+      <c r="AF19" s="10" t="n"/>
       <c r="AG19" s="40" t="n"/>
-      <c r="AH19" s="40" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="AI19" s="40" t="inlineStr">
-        <is>
-          <t>刘文锋18845120517</t>
-        </is>
-      </c>
-      <c r="AJ19" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK19" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH19" s="40" t="n"/>
+      <c r="AI19" s="40" t="n"/>
+      <c r="AJ19" s="40" t="n"/>
+      <c r="AK19" s="16" t="n"/>
     </row>
     <row r="20" ht="15.15" customHeight="1" s="59">
-      <c r="A20" s="10" t="inlineStr">
-        <is>
-          <t>山西农商联合银行智能风险管控平台建设项目</t>
-        </is>
-      </c>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>500-600</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>山西农信</t>
-        </is>
-      </c>
-      <c r="F20" s="10">
-        <f>IFERROR(VLOOKUP($E20,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="10">
-        <f>IFERROR(VLOOKUP($E20,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="10">
-        <f>IFERROR(VLOOKUP($E20,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="10">
-        <f>IF(VLOOKUP($E20,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E20,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J20" s="10" t="inlineStr">
-        <is>
-          <t>风险业务部</t>
-        </is>
-      </c>
-      <c r="K20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L20" s="10" t="inlineStr">
-        <is>
-          <t>刘金强</t>
-        </is>
-      </c>
-      <c r="N20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X20" s="10" t="inlineStr">
-        <is>
-          <t>决策引擎，风控决策平台产品，反欺诈</t>
-        </is>
-      </c>
-      <c r="Y20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA20" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB20" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC20" s="10" t="inlineStr">
-        <is>
-          <t>2024.05-2026.05</t>
-        </is>
-      </c>
-      <c r="AD20" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE20" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A20, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF20" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A20, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="10" t="n"/>
+      <c r="K20" s="10" t="n"/>
+      <c r="L20" s="10" t="n"/>
+      <c r="N20" s="10" t="n"/>
+      <c r="O20" s="10" t="n"/>
+      <c r="P20" s="10" t="n"/>
+      <c r="Q20" s="10" t="n"/>
+      <c r="R20" s="10" t="n"/>
+      <c r="S20" s="10" t="n"/>
+      <c r="T20" s="10" t="n"/>
+      <c r="U20" s="10" t="n"/>
+      <c r="V20" s="10" t="n"/>
+      <c r="W20" s="10" t="n"/>
+      <c r="X20" s="10" t="n"/>
+      <c r="Y20" s="10" t="n"/>
+      <c r="Z20" s="10" t="n"/>
+      <c r="AA20" s="10" t="n"/>
+      <c r="AB20" s="51" t="n"/>
+      <c r="AC20" s="10" t="n"/>
+      <c r="AD20" s="10" t="n"/>
+      <c r="AE20" s="10" t="n"/>
+      <c r="AF20" s="10" t="n"/>
       <c r="AG20" s="40" t="n"/>
-      <c r="AH20" s="40" t="inlineStr">
-        <is>
-          <t>华北</t>
-        </is>
-      </c>
-      <c r="AI20" s="40" t="inlineStr">
-        <is>
-          <t>梁旭杰 18536906330</t>
-        </is>
-      </c>
-      <c r="AJ20" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK20" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH20" s="40" t="n"/>
+      <c r="AI20" s="40" t="n"/>
+      <c r="AJ20" s="40" t="n"/>
+      <c r="AK20" s="16" t="n"/>
     </row>
     <row r="21" ht="15.15" customHeight="1" s="59">
-      <c r="A21" s="10" t="inlineStr">
-        <is>
-          <t>平安银行一表通报送项目</t>
-        </is>
-      </c>
-      <c r="B21" s="10" t="inlineStr">
-        <is>
-          <t>100-200</t>
-        </is>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>平安银行</t>
-        </is>
-      </c>
-      <c r="F21" s="10">
-        <f>IFERROR(VLOOKUP($E21,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="10">
-        <f>IFERROR(VLOOKUP($E21,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="10">
-        <f>IFERROR(VLOOKUP($E21,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="10">
-        <f>IF(VLOOKUP($E21,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E21,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J21" s="10" t="inlineStr">
-        <is>
-          <t>金融业务6C部</t>
-        </is>
-      </c>
-      <c r="K21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L21" s="10" t="inlineStr">
-        <is>
-          <t>刘鸿清</t>
-        </is>
-      </c>
-      <c r="N21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y21" s="10" t="inlineStr">
-        <is>
-          <t>一表通报送</t>
-        </is>
-      </c>
-      <c r="Z21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA21" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB21" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC21" s="10" t="inlineStr">
-        <is>
-          <t>2024.06-2024.12</t>
-        </is>
-      </c>
-      <c r="AD21" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE21" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A21, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF21" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A21, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="10" t="n"/>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="10" t="n"/>
+      <c r="N21" s="10" t="n"/>
+      <c r="O21" s="10" t="n"/>
+      <c r="P21" s="10" t="n"/>
+      <c r="Q21" s="10" t="n"/>
+      <c r="R21" s="10" t="n"/>
+      <c r="S21" s="10" t="n"/>
+      <c r="T21" s="10" t="n"/>
+      <c r="U21" s="10" t="n"/>
+      <c r="V21" s="10" t="n"/>
+      <c r="W21" s="10" t="n"/>
+      <c r="X21" s="10" t="n"/>
+      <c r="Y21" s="10" t="n"/>
+      <c r="Z21" s="10" t="n"/>
+      <c r="AA21" s="10" t="n"/>
+      <c r="AB21" s="51" t="n"/>
+      <c r="AC21" s="10" t="n"/>
+      <c r="AD21" s="10" t="n"/>
+      <c r="AE21" s="10" t="n"/>
+      <c r="AF21" s="10" t="n"/>
       <c r="AG21" s="40" t="n"/>
-      <c r="AH21" s="40" t="inlineStr">
-        <is>
-          <t>华南</t>
-        </is>
-      </c>
-      <c r="AI21" s="40" t="inlineStr">
-        <is>
-          <t>于琦18641196659</t>
-        </is>
-      </c>
-      <c r="AJ21" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK21" s="16" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="AH21" s="40" t="n"/>
+      <c r="AI21" s="40" t="n"/>
+      <c r="AJ21" s="40" t="n"/>
+      <c r="AK21" s="16" t="n"/>
     </row>
     <row r="22" ht="15.15" customHeight="1" s="59">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t>恒丰银行2024年工作量外包入围项目(2024.01.01-2024.12.31)</t>
-        </is>
-      </c>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>恒丰银行</t>
-        </is>
-      </c>
-      <c r="F22" s="10">
-        <f>IFERROR(VLOOKUP($E22,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="10">
-        <f>IFERROR(VLOOKUP($E22,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="10">
-        <f>IFERROR(VLOOKUP($E22,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="10">
-        <f>IF(VLOOKUP($E22,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E22,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J22" s="10" t="inlineStr">
-        <is>
-          <t>金融业务9A部</t>
-        </is>
-      </c>
-      <c r="K22" s="10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="L22" s="10" t="inlineStr">
-        <is>
-          <t>刘晓林</t>
-        </is>
-      </c>
-      <c r="N22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S22" s="10" t="inlineStr">
-        <is>
-          <t>监管集市</t>
-        </is>
-      </c>
-      <c r="T22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y22" s="10" t="inlineStr">
-        <is>
-          <t>一表通报送，1104，人行金融统计报送（大集中），人行利率报送，金融基础数据报送</t>
-        </is>
-      </c>
-      <c r="Z22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA22" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB22" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC22" s="10" t="inlineStr">
-        <is>
-          <t>2024.01.01-2024.12.31</t>
-        </is>
-      </c>
-      <c r="AD22" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE22" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A22, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF22" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A22, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="10" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="10" t="n"/>
+      <c r="N22" s="10" t="n"/>
+      <c r="O22" s="10" t="n"/>
+      <c r="P22" s="10" t="n"/>
+      <c r="Q22" s="10" t="n"/>
+      <c r="R22" s="10" t="n"/>
+      <c r="S22" s="10" t="n"/>
+      <c r="T22" s="10" t="n"/>
+      <c r="U22" s="10" t="n"/>
+      <c r="V22" s="10" t="n"/>
+      <c r="W22" s="10" t="n"/>
+      <c r="X22" s="10" t="n"/>
+      <c r="Y22" s="10" t="n"/>
+      <c r="Z22" s="10" t="n"/>
+      <c r="AA22" s="10" t="n"/>
+      <c r="AB22" s="51" t="n"/>
+      <c r="AC22" s="10" t="n"/>
+      <c r="AD22" s="10" t="n"/>
+      <c r="AE22" s="10" t="n"/>
+      <c r="AF22" s="10" t="n"/>
       <c r="AG22" s="40" t="n"/>
-      <c r="AH22" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI22" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AJ22" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK22" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH22" s="40" t="n"/>
+      <c r="AI22" s="40" t="n"/>
+      <c r="AJ22" s="40" t="n"/>
+      <c r="AK22" s="16" t="n"/>
     </row>
     <row r="23" ht="15.15" customHeight="1" s="59">
-      <c r="A23" s="10" t="inlineStr">
-        <is>
-          <t>恒丰银行品牌金应用等应用维保项目(2023.01.01-2023.12.31)</t>
-        </is>
-      </c>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D23" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>恒丰银行</t>
-        </is>
-      </c>
-      <c r="F23" s="10">
-        <f>IFERROR(VLOOKUP($E23,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="10">
-        <f>IFERROR(VLOOKUP($E23,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="10">
-        <f>IFERROR(VLOOKUP($E23,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="10">
-        <f>IF(VLOOKUP($E23,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E23,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J23" s="10" t="inlineStr">
-        <is>
-          <t>金融业务9A部</t>
-        </is>
-      </c>
-      <c r="K23" s="10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="L23" s="10" t="inlineStr">
-        <is>
-          <t>刘晓林</t>
-        </is>
-      </c>
-      <c r="N23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S23" s="10" t="inlineStr">
-        <is>
-          <t>风险集市，监管集市</t>
-        </is>
-      </c>
-      <c r="T23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y23" s="10" t="inlineStr">
-        <is>
-          <t>1104，人行金融统计报送（大集中），人行利率报送，金融基础数据报送</t>
-        </is>
-      </c>
-      <c r="Z23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA23" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB23" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC23" s="10" t="inlineStr">
-        <is>
-          <t>2023.01.01-2023.12.31</t>
-        </is>
-      </c>
-      <c r="AD23" s="10" t="inlineStr">
-        <is>
-          <t>已完成</t>
-        </is>
-      </c>
-      <c r="AE23" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A23, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF23" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A23, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="10" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="10" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="10" t="n"/>
+      <c r="N23" s="10" t="n"/>
+      <c r="O23" s="10" t="n"/>
+      <c r="P23" s="10" t="n"/>
+      <c r="Q23" s="10" t="n"/>
+      <c r="R23" s="10" t="n"/>
+      <c r="S23" s="10" t="n"/>
+      <c r="T23" s="10" t="n"/>
+      <c r="U23" s="10" t="n"/>
+      <c r="V23" s="10" t="n"/>
+      <c r="W23" s="10" t="n"/>
+      <c r="X23" s="10" t="n"/>
+      <c r="Y23" s="10" t="n"/>
+      <c r="Z23" s="10" t="n"/>
+      <c r="AA23" s="10" t="n"/>
+      <c r="AB23" s="51" t="n"/>
+      <c r="AC23" s="10" t="n"/>
+      <c r="AD23" s="10" t="n"/>
+      <c r="AE23" s="10" t="n"/>
+      <c r="AF23" s="10" t="n"/>
       <c r="AG23" s="40" t="n"/>
-      <c r="AH23" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI23" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AJ23" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK23" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH23" s="40" t="n"/>
+      <c r="AI23" s="40" t="n"/>
+      <c r="AJ23" s="40" t="n"/>
+      <c r="AK23" s="16" t="n"/>
     </row>
     <row r="24" ht="15.15" customHeight="1" s="59">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>恒丰银行数据交换平台项目</t>
-        </is>
-      </c>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>恒丰银行</t>
-        </is>
-      </c>
-      <c r="F24" s="10">
-        <f>IFERROR(VLOOKUP($E24,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G24" s="10">
-        <f>IFERROR(VLOOKUP($E24,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H24" s="10">
-        <f>IFERROR(VLOOKUP($E24,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="10">
-        <f>IF(VLOOKUP($E24,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E24,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J24" s="10" t="inlineStr">
-        <is>
-          <t>金融业务9C部</t>
-        </is>
-      </c>
-      <c r="K24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L24" s="10" t="inlineStr">
-        <is>
-          <t>宋呈祥</t>
-        </is>
-      </c>
-      <c r="N24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P24" s="10" t="inlineStr">
-        <is>
-          <t>数据交换平台</t>
-        </is>
-      </c>
-      <c r="Q24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA24" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB24" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC24" s="10" t="inlineStr">
-        <is>
-          <t>2023.06-2023.09</t>
-        </is>
-      </c>
-      <c r="AD24" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE24" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A24, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF24" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A24, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="10" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="10" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="10" t="n"/>
+      <c r="N24" s="10" t="n"/>
+      <c r="O24" s="10" t="n"/>
+      <c r="P24" s="10" t="n"/>
+      <c r="Q24" s="10" t="n"/>
+      <c r="R24" s="10" t="n"/>
+      <c r="S24" s="10" t="n"/>
+      <c r="T24" s="10" t="n"/>
+      <c r="U24" s="10" t="n"/>
+      <c r="V24" s="10" t="n"/>
+      <c r="W24" s="10" t="n"/>
+      <c r="X24" s="10" t="n"/>
+      <c r="Y24" s="10" t="n"/>
+      <c r="Z24" s="10" t="n"/>
+      <c r="AA24" s="10" t="n"/>
+      <c r="AB24" s="51" t="n"/>
+      <c r="AC24" s="10" t="n"/>
+      <c r="AD24" s="10" t="n"/>
+      <c r="AE24" s="10" t="n"/>
+      <c r="AF24" s="10" t="n"/>
       <c r="AG24" s="40" t="n"/>
-      <c r="AH24" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI24" s="40" t="inlineStr">
-        <is>
-          <t>庞辉</t>
-        </is>
-      </c>
-      <c r="AJ24" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK24" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH24" s="40" t="n"/>
+      <c r="AI24" s="40" t="n"/>
+      <c r="AJ24" s="40" t="n"/>
+      <c r="AK24" s="16" t="n"/>
     </row>
     <row r="25" ht="15.15" customHeight="1" s="59">
-      <c r="A25" s="10" t="inlineStr">
-        <is>
-          <t>数据中台配套改造</t>
-        </is>
-      </c>
-      <c r="B25" s="10" t="inlineStr">
-        <is>
-          <t>100-200</t>
-        </is>
-      </c>
-      <c r="C25" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D25" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>承德银行</t>
-        </is>
-      </c>
-      <c r="F25" s="10">
-        <f>IFERROR(VLOOKUP($E25,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="10">
-        <f>IFERROR(VLOOKUP($E25,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H25" s="10">
-        <f>IFERROR(VLOOKUP($E25,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="10">
-        <f>IF(VLOOKUP($E25,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E25,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J25" s="10" t="inlineStr">
-        <is>
-          <t>金融业务7A部</t>
-        </is>
-      </c>
-      <c r="K25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L25" s="10" t="inlineStr">
-        <is>
-          <t>白敬宜</t>
-        </is>
-      </c>
-      <c r="N25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O25" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库，实时数据平台，数据湖</t>
-        </is>
-      </c>
-      <c r="P25" s="10" t="inlineStr">
-        <is>
-          <t>数据交换平台，调度平台，数据补录平台</t>
-        </is>
-      </c>
-      <c r="Q25" s="10" t="inlineStr">
-        <is>
-          <t>数据标准管理模块，数据模型管理模块，数据资产管理模块</t>
-        </is>
-      </c>
-      <c r="R25" s="10" t="inlineStr">
-        <is>
-          <t>数据标准，数据质量，数据模型</t>
-        </is>
-      </c>
-      <c r="S25" s="10" t="inlineStr">
-        <is>
-          <t>管理会计集市</t>
-        </is>
-      </c>
-      <c r="T25" s="10" t="inlineStr">
-        <is>
-          <t>指标管理平台，指标梳理</t>
-        </is>
-      </c>
-      <c r="U25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V25" s="10" t="inlineStr">
-        <is>
-          <t>统一数据门户</t>
-        </is>
-      </c>
-      <c r="W25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA25" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB25" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC25" s="10" t="inlineStr">
-        <is>
-          <t>2024.01-2024.12</t>
-        </is>
-      </c>
-      <c r="AD25" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE25" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A25, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF25" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A25, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A25" s="10" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="10" t="n"/>
+      <c r="N25" s="10" t="n"/>
+      <c r="O25" s="10" t="n"/>
+      <c r="P25" s="10" t="n"/>
+      <c r="Q25" s="10" t="n"/>
+      <c r="R25" s="10" t="n"/>
+      <c r="S25" s="10" t="n"/>
+      <c r="T25" s="10" t="n"/>
+      <c r="U25" s="10" t="n"/>
+      <c r="V25" s="10" t="n"/>
+      <c r="W25" s="10" t="n"/>
+      <c r="X25" s="10" t="n"/>
+      <c r="Y25" s="10" t="n"/>
+      <c r="Z25" s="10" t="n"/>
+      <c r="AA25" s="10" t="n"/>
+      <c r="AB25" s="51" t="n"/>
+      <c r="AC25" s="10" t="n"/>
+      <c r="AD25" s="10" t="n"/>
+      <c r="AE25" s="10" t="n"/>
+      <c r="AF25" s="10" t="n"/>
       <c r="AG25" s="40" t="n"/>
-      <c r="AH25" s="40" t="inlineStr">
-        <is>
-          <t>华北</t>
-        </is>
-      </c>
-      <c r="AI25" s="40" t="inlineStr">
-        <is>
-          <t>贾开元18503141883</t>
-        </is>
-      </c>
-      <c r="AJ25" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK25" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH25" s="40" t="n"/>
+      <c r="AI25" s="40" t="n"/>
+      <c r="AJ25" s="40" t="n"/>
+      <c r="AK25" s="16" t="n"/>
     </row>
     <row r="26" ht="15.15" customHeight="1" s="59">
-      <c r="A26" s="10" t="inlineStr">
-        <is>
-          <t>河北银行2024年存款保险同一存款人人力外包项目</t>
-        </is>
-      </c>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>河北银行</t>
-        </is>
-      </c>
-      <c r="F26" s="10">
-        <f>IFERROR(VLOOKUP($E26,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G26" s="10">
-        <f>IFERROR(VLOOKUP($E26,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="10">
-        <f>IFERROR(VLOOKUP($E26,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="10">
-        <f>IF(VLOOKUP($E26,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E26,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J26" s="10" t="inlineStr">
-        <is>
-          <t>金融业务7部</t>
-        </is>
-      </c>
-      <c r="K26" s="10" t="inlineStr">
-        <is>
-          <t>金融业务7A部</t>
-        </is>
-      </c>
-      <c r="L26" s="10" t="inlineStr">
-        <is>
-          <t>王雪瑶</t>
-        </is>
-      </c>
-      <c r="N26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y26" s="10" t="inlineStr">
-        <is>
-          <t>存款保险信息报送</t>
-        </is>
-      </c>
-      <c r="Z26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA26" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB26" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC26" s="10" t="inlineStr">
-        <is>
-          <t>2024.03-2025.01</t>
-        </is>
-      </c>
-      <c r="AD26" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE26" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A26, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF26" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A26, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="10" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="10" t="n"/>
+      <c r="N26" s="10" t="n"/>
+      <c r="O26" s="10" t="n"/>
+      <c r="P26" s="10" t="n"/>
+      <c r="Q26" s="10" t="n"/>
+      <c r="R26" s="10" t="n"/>
+      <c r="S26" s="10" t="n"/>
+      <c r="T26" s="10" t="n"/>
+      <c r="U26" s="10" t="n"/>
+      <c r="V26" s="10" t="n"/>
+      <c r="W26" s="10" t="n"/>
+      <c r="X26" s="10" t="n"/>
+      <c r="Y26" s="10" t="n"/>
+      <c r="Z26" s="10" t="n"/>
+      <c r="AA26" s="10" t="n"/>
+      <c r="AB26" s="51" t="n"/>
+      <c r="AC26" s="10" t="n"/>
+      <c r="AD26" s="10" t="n"/>
+      <c r="AE26" s="10" t="n"/>
+      <c r="AF26" s="10" t="n"/>
       <c r="AG26" s="40" t="n"/>
-      <c r="AH26" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI26" s="40" t="inlineStr">
-        <is>
-          <t>靳玮15931689827</t>
-        </is>
-      </c>
-      <c r="AJ26" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK26" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH26" s="40" t="n"/>
+      <c r="AI26" s="40" t="n"/>
+      <c r="AJ26" s="40" t="n"/>
+      <c r="AK26" s="16" t="n"/>
     </row>
     <row r="27" ht="15.15" customHeight="1" s="59">
-      <c r="A27" s="10" t="inlineStr">
-        <is>
-          <t>潍坊银行统一数据应用门户系统二期项目软件开发合同</t>
-        </is>
-      </c>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>100-200</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D27" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>潍坊银行</t>
-        </is>
-      </c>
-      <c r="F27" s="10">
-        <f>IFERROR(VLOOKUP($E27,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="10">
-        <f>IFERROR(VLOOKUP($E27,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H27" s="10">
-        <f>IFERROR(VLOOKUP($E27,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I27" s="10">
-        <f>IF(VLOOKUP($E27,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E27,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J27" s="10" t="inlineStr">
-        <is>
-          <t>金融业务7C部</t>
-        </is>
-      </c>
-      <c r="K27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L27" s="10" t="inlineStr">
-        <is>
-          <t>李振朋</t>
-        </is>
-      </c>
-      <c r="N27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S27" s="10" t="inlineStr">
-        <is>
-          <t>统一数据集市</t>
-        </is>
-      </c>
-      <c r="T27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V27" s="10" t="inlineStr">
-        <is>
-          <t>统一数据门户，移动端数据门户</t>
-        </is>
-      </c>
-      <c r="W27" s="10" t="inlineStr">
-        <is>
-          <t>客户画像</t>
-        </is>
-      </c>
-      <c r="X27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z27" s="10" t="inlineStr">
-        <is>
-          <t>投诉管理系统</t>
-        </is>
-      </c>
-      <c r="AA27" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB27" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC27" s="10" t="inlineStr">
-        <is>
-          <t>2024.06-2025.05</t>
-        </is>
-      </c>
-      <c r="AD27" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE27" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A27, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF27" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A27, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A27" s="10" t="n"/>
+      <c r="B27" s="10" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="10" t="n"/>
+      <c r="K27" s="10" t="n"/>
+      <c r="L27" s="10" t="n"/>
+      <c r="N27" s="10" t="n"/>
+      <c r="O27" s="10" t="n"/>
+      <c r="P27" s="10" t="n"/>
+      <c r="Q27" s="10" t="n"/>
+      <c r="R27" s="10" t="n"/>
+      <c r="S27" s="10" t="n"/>
+      <c r="T27" s="10" t="n"/>
+      <c r="U27" s="10" t="n"/>
+      <c r="V27" s="10" t="n"/>
+      <c r="W27" s="10" t="n"/>
+      <c r="X27" s="10" t="n"/>
+      <c r="Y27" s="10" t="n"/>
+      <c r="Z27" s="10" t="n"/>
+      <c r="AA27" s="10" t="n"/>
+      <c r="AB27" s="51" t="n"/>
+      <c r="AC27" s="10" t="n"/>
+      <c r="AD27" s="10" t="n"/>
+      <c r="AE27" s="10" t="n"/>
+      <c r="AF27" s="10" t="n"/>
       <c r="AG27" s="40" t="n"/>
-      <c r="AH27" s="40" t="inlineStr">
-        <is>
-          <t>华北</t>
-        </is>
-      </c>
-      <c r="AI27" s="40" t="inlineStr">
-        <is>
-          <t>刘玉坤17705368696</t>
-        </is>
-      </c>
-      <c r="AJ27" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK27" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH27" s="40" t="n"/>
+      <c r="AI27" s="40" t="n"/>
+      <c r="AJ27" s="40" t="n"/>
+      <c r="AK27" s="16" t="n"/>
     </row>
     <row r="28" ht="15.15" customHeight="1" s="59">
-      <c r="A28" s="10" t="inlineStr">
-        <is>
-          <t>烟台银行数据补录系统</t>
-        </is>
-      </c>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>烟台银行</t>
-        </is>
-      </c>
-      <c r="F28" s="10">
-        <f>IFERROR(VLOOKUP($E28,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G28" s="10">
-        <f>IFERROR(VLOOKUP($E28,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H28" s="10">
-        <f>IFERROR(VLOOKUP($E28,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="10">
-        <f>IF(VLOOKUP($E28,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E28,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J28" s="10" t="inlineStr">
-        <is>
-          <t>金融业务9C部</t>
-        </is>
-      </c>
-      <c r="K28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L28" s="10" t="inlineStr">
-        <is>
-          <t>张珊珊</t>
-        </is>
-      </c>
-      <c r="N28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P28" s="10" t="inlineStr">
-        <is>
-          <t>数据补录平台</t>
-        </is>
-      </c>
-      <c r="Q28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA28" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB28" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC28" s="10" t="inlineStr">
-        <is>
-          <t>2023.04-2023.06</t>
-        </is>
-      </c>
-      <c r="AD28" s="10" t="inlineStr">
-        <is>
-          <t>已验收</t>
-        </is>
-      </c>
-      <c r="AE28" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A28, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF28" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A28, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A28" s="10" t="n"/>
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+      <c r="I28" s="10" t="n"/>
+      <c r="J28" s="10" t="n"/>
+      <c r="K28" s="10" t="n"/>
+      <c r="L28" s="10" t="n"/>
+      <c r="N28" s="10" t="n"/>
+      <c r="O28" s="10" t="n"/>
+      <c r="P28" s="10" t="n"/>
+      <c r="Q28" s="10" t="n"/>
+      <c r="R28" s="10" t="n"/>
+      <c r="S28" s="10" t="n"/>
+      <c r="T28" s="10" t="n"/>
+      <c r="U28" s="10" t="n"/>
+      <c r="V28" s="10" t="n"/>
+      <c r="W28" s="10" t="n"/>
+      <c r="X28" s="10" t="n"/>
+      <c r="Y28" s="10" t="n"/>
+      <c r="Z28" s="10" t="n"/>
+      <c r="AA28" s="10" t="n"/>
+      <c r="AB28" s="51" t="n"/>
+      <c r="AC28" s="10" t="n"/>
+      <c r="AD28" s="10" t="n"/>
+      <c r="AE28" s="10" t="n"/>
+      <c r="AF28" s="10" t="n"/>
       <c r="AG28" s="40" t="n"/>
-      <c r="AH28" s="40" t="inlineStr">
-        <is>
-          <t>烟台</t>
-        </is>
-      </c>
-      <c r="AI28" s="40" t="inlineStr">
-        <is>
-          <t>于晓洋</t>
-        </is>
-      </c>
-      <c r="AJ28" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK28" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH28" s="40" t="n"/>
+      <c r="AI28" s="40" t="n"/>
+      <c r="AJ28" s="40" t="n"/>
+      <c r="AK28" s="16" t="n"/>
     </row>
     <row r="29" ht="15.15" customHeight="1" s="59">
-      <c r="A29" s="10" t="inlineStr">
-        <is>
-          <t>郑州银行2024年基础数据模型优化项目</t>
-        </is>
-      </c>
-      <c r="B29" s="10" t="inlineStr">
-        <is>
-          <t>100-200</t>
-        </is>
-      </c>
-      <c r="C29" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D29" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E29" s="10" t="inlineStr">
-        <is>
-          <t>郑州银行</t>
-        </is>
-      </c>
-      <c r="F29" s="10">
-        <f>IFERROR(VLOOKUP($E29,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G29" s="10">
-        <f>IFERROR(VLOOKUP($E29,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H29" s="10">
-        <f>IFERROR(VLOOKUP($E29,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="10">
-        <f>IF(VLOOKUP($E29,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E29,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J29" s="10" t="inlineStr">
-        <is>
-          <t>金融业务2A部</t>
-        </is>
-      </c>
-      <c r="K29" s="10" t="inlineStr">
-        <is>
-          <t>金融业务2A部</t>
-        </is>
-      </c>
-      <c r="L29" s="10" t="inlineStr">
-        <is>
-          <t>卢延兵</t>
-        </is>
-      </c>
-      <c r="N29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O29" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库、数仓迁移</t>
-        </is>
-      </c>
-      <c r="P29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S29" s="10" t="inlineStr">
-        <is>
-          <t>经分集市</t>
-        </is>
-      </c>
-      <c r="T29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA29" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB29" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC29" s="10" t="inlineStr">
-        <is>
-          <t>2024.05-2024.11</t>
-        </is>
-      </c>
-      <c r="AD29" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE29" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A29, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF29" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A29, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="10" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="10" t="n"/>
+      <c r="N29" s="10" t="n"/>
+      <c r="O29" s="10" t="n"/>
+      <c r="P29" s="10" t="n"/>
+      <c r="Q29" s="10" t="n"/>
+      <c r="R29" s="10" t="n"/>
+      <c r="S29" s="10" t="n"/>
+      <c r="T29" s="10" t="n"/>
+      <c r="U29" s="10" t="n"/>
+      <c r="V29" s="10" t="n"/>
+      <c r="W29" s="10" t="n"/>
+      <c r="X29" s="10" t="n"/>
+      <c r="Y29" s="10" t="n"/>
+      <c r="Z29" s="10" t="n"/>
+      <c r="AA29" s="10" t="n"/>
+      <c r="AB29" s="51" t="n"/>
+      <c r="AC29" s="10" t="n"/>
+      <c r="AD29" s="10" t="n"/>
+      <c r="AE29" s="10" t="n"/>
+      <c r="AF29" s="10" t="n"/>
       <c r="AG29" s="40" t="n"/>
-      <c r="AH29" s="40" t="inlineStr">
-        <is>
-          <t>西北</t>
-        </is>
-      </c>
-      <c r="AI29" s="40" t="inlineStr">
-        <is>
-          <t>高晓燕18736076609</t>
-        </is>
-      </c>
-      <c r="AJ29" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK29" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH29" s="40" t="n"/>
+      <c r="AI29" s="40" t="n"/>
+      <c r="AJ29" s="40" t="n"/>
+      <c r="AK29" s="16" t="n"/>
     </row>
     <row r="30" ht="15.15" customHeight="1" s="59">
-      <c r="A30" s="10" t="inlineStr">
-        <is>
-          <t>陕西金资新一代核心系统功能优化升级项目</t>
-        </is>
-      </c>
-      <c r="B30" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>陕西资产管理股份有限公司</t>
-        </is>
-      </c>
-      <c r="F30" s="10">
-        <f>IFERROR(VLOOKUP($E30,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G30" s="10">
-        <f>IFERROR(VLOOKUP($E30,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H30" s="10">
-        <f>IFERROR(VLOOKUP($E30,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="10">
-        <f>IF(VLOOKUP($E30,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E30,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J30" s="10" t="inlineStr">
-        <is>
-          <t>金融业务2C部</t>
-        </is>
-      </c>
-      <c r="K30" s="10" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="L30" s="10" t="inlineStr">
-        <is>
-          <t>郭斌</t>
-        </is>
-      </c>
-      <c r="N30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O30" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="P30" s="10" t="inlineStr">
-        <is>
-          <t>数据交换平台，调度平台</t>
-        </is>
-      </c>
-      <c r="Q30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S30" s="10" t="inlineStr">
-        <is>
-          <t>报表集市</t>
-        </is>
-      </c>
-      <c r="T30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V30" s="10" t="inlineStr">
-        <is>
-          <t>报表平台</t>
-        </is>
-      </c>
-      <c r="W30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA30" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB30" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC30" s="10" t="inlineStr">
-        <is>
-          <t>2024.05-2025.03</t>
-        </is>
-      </c>
-      <c r="AD30" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE30" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A30, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF30" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A30, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="10" t="n"/>
+      <c r="F30" s="10" t="n"/>
+      <c r="G30" s="10" t="n"/>
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="10" t="n"/>
+      <c r="J30" s="10" t="n"/>
+      <c r="K30" s="10" t="n"/>
+      <c r="L30" s="10" t="n"/>
+      <c r="N30" s="10" t="n"/>
+      <c r="O30" s="10" t="n"/>
+      <c r="P30" s="10" t="n"/>
+      <c r="Q30" s="10" t="n"/>
+      <c r="R30" s="10" t="n"/>
+      <c r="S30" s="10" t="n"/>
+      <c r="T30" s="10" t="n"/>
+      <c r="U30" s="10" t="n"/>
+      <c r="V30" s="10" t="n"/>
+      <c r="W30" s="10" t="n"/>
+      <c r="X30" s="10" t="n"/>
+      <c r="Y30" s="10" t="n"/>
+      <c r="Z30" s="10" t="n"/>
+      <c r="AA30" s="10" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="10" t="n"/>
+      <c r="AD30" s="10" t="n"/>
+      <c r="AE30" s="10" t="n"/>
+      <c r="AF30" s="10" t="n"/>
       <c r="AG30" s="40" t="n"/>
-      <c r="AH30" s="40" t="inlineStr">
-        <is>
-          <t>西北</t>
-        </is>
-      </c>
-      <c r="AI30" s="40" t="inlineStr">
-        <is>
-          <t>李凯18710339667</t>
-        </is>
-      </c>
-      <c r="AJ30" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK30" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH30" s="40" t="n"/>
+      <c r="AI30" s="40" t="n"/>
+      <c r="AJ30" s="40" t="n"/>
+      <c r="AK30" s="16" t="n"/>
     </row>
     <row r="31" ht="15.15" customHeight="1" s="59">
-      <c r="A31" s="10" t="inlineStr">
-        <is>
-          <t>齐鲁银行指标平台项目</t>
-        </is>
-      </c>
-      <c r="B31" s="10" t="inlineStr">
-        <is>
-          <t>100-200</t>
-        </is>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E31" s="10" t="inlineStr">
-        <is>
-          <t>齐鲁银行</t>
-        </is>
-      </c>
-      <c r="F31" s="10">
-        <f>IFERROR(VLOOKUP($E31,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="10">
-        <f>IFERROR(VLOOKUP($E31,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="10">
-        <f>IFERROR(VLOOKUP($E31,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="10">
-        <f>IF(VLOOKUP($E31,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E31,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J31" s="10" t="inlineStr">
-        <is>
-          <t>金融业务7C部</t>
-        </is>
-      </c>
-      <c r="K31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L31" s="10" t="inlineStr">
-        <is>
-          <t>马硕</t>
-        </is>
-      </c>
-      <c r="N31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S31" s="10" t="inlineStr">
-        <is>
-          <t>指标集市</t>
-        </is>
-      </c>
-      <c r="T31" s="10" t="inlineStr">
-        <is>
-          <t>指标管理平台</t>
-        </is>
-      </c>
-      <c r="U31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA31" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB31" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC31" s="10" t="inlineStr">
-        <is>
-          <t>2024.07-2024.11</t>
-        </is>
-      </c>
-      <c r="AD31" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE31" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A31, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF31" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A31, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="10" t="n"/>
+      <c r="F31" s="10" t="n"/>
+      <c r="G31" s="10" t="n"/>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="10" t="n"/>
+      <c r="J31" s="10" t="n"/>
+      <c r="K31" s="10" t="n"/>
+      <c r="L31" s="10" t="n"/>
+      <c r="N31" s="10" t="n"/>
+      <c r="O31" s="10" t="n"/>
+      <c r="P31" s="10" t="n"/>
+      <c r="Q31" s="10" t="n"/>
+      <c r="R31" s="10" t="n"/>
+      <c r="S31" s="10" t="n"/>
+      <c r="T31" s="10" t="n"/>
+      <c r="U31" s="10" t="n"/>
+      <c r="V31" s="10" t="n"/>
+      <c r="W31" s="10" t="n"/>
+      <c r="X31" s="10" t="n"/>
+      <c r="Y31" s="10" t="n"/>
+      <c r="Z31" s="10" t="n"/>
+      <c r="AA31" s="10" t="n"/>
+      <c r="AB31" s="51" t="n"/>
+      <c r="AC31" s="10" t="n"/>
+      <c r="AD31" s="10" t="n"/>
+      <c r="AE31" s="10" t="n"/>
+      <c r="AF31" s="10" t="n"/>
       <c r="AG31" s="40" t="n"/>
-      <c r="AH31" s="40" t="inlineStr">
-        <is>
-          <t>华北</t>
-        </is>
-      </c>
-      <c r="AI31" s="40" t="inlineStr">
-        <is>
-          <t>张传格13335159258</t>
-        </is>
-      </c>
-      <c r="AJ31" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK31" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH31" s="40" t="n"/>
+      <c r="AI31" s="40" t="n"/>
+      <c r="AJ31" s="40" t="n"/>
+      <c r="AK31" s="16" t="n"/>
     </row>
     <row r="32" ht="15.15" customHeight="1" s="59">
       <c r="AB32" s="51" t="n"/>
@@ -6841,23 +4467,21 @@
     <row r="4" ht="15" customFormat="1" customHeight="1" s="31">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>交通银行2024-2027年开发服务采购框架协议</t>
+          <t>企业级数据仓库迁移项目（二期）项目</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>大数据</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>CDP7.1.7</t>
+        </is>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>27</v>
       </c>
       <c r="E4" s="14" t="inlineStr">
         <is>
@@ -6871,12 +4495,12 @@
       </c>
       <c r="G4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>JMP</t>
         </is>
       </c>
       <c r="H4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>大数据平台开发IDE(致宇)</t>
         </is>
       </c>
       <c r="I4" s="14" t="inlineStr">
@@ -6896,12 +4520,12 @@
       </c>
       <c r="L4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="M4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="N4" s="14" t="inlineStr">
@@ -6912,60 +4536,58 @@
       <c r="O4" s="14" t="n"/>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>监管报送，管理驾驶舱</t>
         </is>
       </c>
       <c r="Q4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
       <c r="R4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>是</t>
         </is>
       </c>
       <c r="S4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>CDP</t>
         </is>
       </c>
       <c r="T4" s="16" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>2022.09-2024.04</t>
         </is>
       </c>
       <c r="U4" s="16" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>新老并行验证</t>
         </is>
       </c>
       <c r="V4" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="59">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>云南红塔银行数字普惠系统全普一期项目-模型平台配合改造项目</t>
+          <t>上海农商行2023年度内部评级系统、风险加权资产计量系统（C模式）框架协议（2023.3.24-2024.6.30）-2023年结算</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Maxcompute</t>
+          <t>ORACLE</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>19c</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="13" t="inlineStr">
         <is>
@@ -6979,17 +4601,17 @@
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
-          <t>dataworks</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H5" s="13" t="inlineStr">
         <is>
-          <t>dataworks</t>
+          <t>/</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>长亮科技数据交换平台v2.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -7009,7 +4631,7 @@
       </c>
       <c r="M5" s="13" t="inlineStr">
         <is>
-          <t>麒麟V10</t>
+          <t>Redhat7.7</t>
         </is>
       </c>
       <c r="N5" s="13" t="inlineStr">
@@ -7020,12 +4642,12 @@
       <c r="O5" s="13" t="n"/>
       <c r="P5" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>对公授信，个人贷款</t>
         </is>
       </c>
       <c r="Q5" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
       <c r="R5" s="13" t="inlineStr">
@@ -7050,34 +4672,32 @@
       </c>
       <c r="V5" s="13" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" s="59">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>上海农商行2024年度信用风险集市系统（C模式）框架协议（2024.7.1-2025.6.30）—2024年结算</t>
+          <t>上海农村商业银行股份有限公司2023年度企业级数据仓库和数据模型系统增选开发维护服务（C模式）框架</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>impala</t>
+          <t>Hadoop</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>CDP</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>27</v>
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>cloudera</t>
         </is>
       </c>
       <c r="F6" s="13" t="inlineStr">
@@ -7087,7 +4707,7 @@
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
-          <t>JMP</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H6" s="13" t="inlineStr">
@@ -7107,7 +4727,7 @@
       </c>
       <c r="K6" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>erwin</t>
         </is>
       </c>
       <c r="L6" s="13" t="inlineStr">
@@ -7128,7 +4748,7 @@
       <c r="O6" s="13" t="n"/>
       <c r="P6" s="13" t="inlineStr">
         <is>
-          <t>RWA/大额风险暴露/信用风险预警</t>
+          <t>监管报送，管理驾驶舱</t>
         </is>
       </c>
       <c r="Q6" s="14" t="inlineStr">
@@ -7138,22 +4758,22 @@
       </c>
       <c r="R6" s="14" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>CDP</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>2022.1-2023.12</t>
         </is>
       </c>
       <c r="U6" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>并行阶段</t>
         </is>
       </c>
       <c r="V6" s="13" t="inlineStr">
@@ -7165,21 +4785,23 @@
     <row r="7" ht="15" customHeight="1" s="59">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>上海农商银行企业级数据仓库二代模型模块C模式增补初中级人员项目</t>
+          <t>东亚银行标签平台</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>大数据</t>
+          <t>MPP</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>CDP 7</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>19</v>
+          <t>argodb</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="E7" s="13" t="inlineStr">
         <is>
@@ -7193,7 +4815,7 @@
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
-          <t>JMP</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H7" s="13" t="inlineStr">
@@ -7218,12 +4840,12 @@
       </c>
       <c r="L7" s="13" t="inlineStr">
         <is>
-          <t>UniServer R4900 G3</t>
+          <t>/</t>
         </is>
       </c>
       <c r="M7" s="13" t="inlineStr">
         <is>
-          <t>CentOS 7.7</t>
+          <t>麒麟V10</t>
         </is>
       </c>
       <c r="N7" s="13" t="inlineStr">
@@ -7234,17 +4856,17 @@
       <c r="O7" s="13" t="n"/>
       <c r="P7" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>营销平台，crm</t>
         </is>
       </c>
       <c r="Q7" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
       <c r="R7" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
       <c r="S7" s="13" t="inlineStr">
@@ -7271,21 +4893,23 @@
     <row r="8" ht="15" customHeight="1" s="59">
       <c r="A8" s="28" t="inlineStr">
         <is>
-          <t>中国电财-2024年数据管理及数据共享服务系统（五期）-数据工程项目-成本</t>
+          <t>东莞银行数据治理项目</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>大数据</t>
+          <t>/</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>hadoop</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>20</v>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
@@ -7294,12 +4918,12 @@
       </c>
       <c r="F8" s="13" t="inlineStr">
         <is>
-          <t>SmartBI</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
-          <t>airflow</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H8" s="13" t="inlineStr">
@@ -7314,7 +4938,7 @@
       </c>
       <c r="J8" s="13" t="inlineStr">
         <is>
-          <t>长亮科技数据资产管理平台v2.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="K8" s="13" t="inlineStr">
@@ -7340,17 +4964,17 @@
       <c r="O8" s="13" t="n"/>
       <c r="P8" s="13" t="inlineStr">
         <is>
-          <t>监管报送，管理驾驶舱</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q8" s="13" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>/</t>
         </is>
       </c>
       <c r="R8" s="13" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>/</t>
         </is>
       </c>
       <c r="S8" s="13" t="inlineStr">
@@ -7377,21 +5001,21 @@
     <row r="9" ht="15" customHeight="1" s="59">
       <c r="A9" s="28" t="inlineStr">
         <is>
-          <t>中国电财-2024年数据管理及数据共享服务系统（五期）-数据工程项目-资本</t>
+          <t>中信财务数据治理和数据中台建设项目</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>大数据</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>hadoop</t>
+          <t>19C</t>
         </is>
       </c>
       <c r="D9" s="13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E9" s="13" t="inlineStr">
         <is>
@@ -7405,7 +5029,7 @@
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
-          <t>airflow</t>
+          <t>长亮科技企业级调度平台v8.0</t>
         </is>
       </c>
       <c r="H9" s="13" t="inlineStr">
@@ -7415,12 +5039,12 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>长亮科技数据交换平台v5.5</t>
         </is>
       </c>
       <c r="J9" s="13" t="inlineStr">
         <is>
-          <t>长亮科技数据资产管理平台v2.0</t>
+          <t>长亮科技数据资产管理平台v5.0</t>
         </is>
       </c>
       <c r="K9" s="13" t="inlineStr">
@@ -7430,12 +5054,12 @@
       </c>
       <c r="L9" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>阿里云ECS</t>
         </is>
       </c>
       <c r="M9" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>ubantu 22</t>
         </is>
       </c>
       <c r="N9" s="13" t="inlineStr">
@@ -7446,7 +5070,7 @@
       <c r="O9" s="13" t="n"/>
       <c r="P9" s="13" t="inlineStr">
         <is>
-          <t>监管报送，管理驾驶舱</t>
+          <t>监管报送，流动性管理系统，管理驾驶舱</t>
         </is>
       </c>
       <c r="Q9" s="13" t="inlineStr">
@@ -7476,28 +5100,30 @@
       </c>
       <c r="V9" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="10" ht="15" customFormat="1" customHeight="1" s="31">
       <c r="A10" s="32" t="inlineStr">
         <is>
-          <t>中广核财务1104表样及取数逻辑更新软件升级服务合同</t>
+          <t>中化财务数据平台2023年优化升级项目</t>
         </is>
       </c>
       <c r="B10" s="14" t="inlineStr">
         <is>
-          <t>大数据平台</t>
+          <t>MPP</t>
         </is>
       </c>
       <c r="C10" s="14" t="inlineStr">
         <is>
-          <t>TDH5.0</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>10</v>
+          <t>Oracle 11.2.0.4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
         <is>
@@ -7516,7 +5142,7 @@
       </c>
       <c r="H10" s="14" t="inlineStr">
         <is>
-          <t>长亮科技数据开发平台v2.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="I10" s="14" t="inlineStr">
@@ -7531,17 +5157,17 @@
       </c>
       <c r="K10" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>自主研发</t>
         </is>
       </c>
       <c r="L10" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>centos 7.4</t>
         </is>
       </c>
       <c r="M10" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>windows10</t>
         </is>
       </c>
       <c r="N10" s="14" t="inlineStr">
@@ -7552,7 +5178,7 @@
       <c r="O10" s="14" t="n"/>
       <c r="P10" s="14" t="inlineStr">
         <is>
-          <t>监管报送</t>
+          <t>监管报送，管理驾驶舱</t>
         </is>
       </c>
       <c r="Q10" s="14" t="inlineStr">
@@ -7567,17 +5193,17 @@
       </c>
       <c r="S10" s="14" t="inlineStr">
         <is>
-          <t>GuassDB 200</t>
+          <t>/</t>
         </is>
       </c>
       <c r="T10" s="37" t="inlineStr">
         <is>
-          <t>2023.1-2023.12</t>
+          <t>/</t>
         </is>
       </c>
       <c r="U10" s="37" t="inlineStr">
         <is>
-          <t>需求分析</t>
+          <t>/</t>
         </is>
       </c>
       <c r="V10" s="14" t="inlineStr">
@@ -7589,17 +5215,17 @@
     <row r="11" ht="15" customFormat="1" customHeight="1" s="31">
       <c r="A11" s="14" t="inlineStr">
         <is>
-          <t>中广核财务监管报送系统运维服务合同</t>
+          <t>中国银行应用软件支持服务（MUREX）项目</t>
         </is>
       </c>
       <c r="B11" s="14" t="inlineStr">
         <is>
-          <t>大数据平台</t>
+          <t>ORACLE</t>
         </is>
       </c>
       <c r="C11" s="14" t="inlineStr">
         <is>
-          <t>TDH5.0</t>
+          <t>11G</t>
         </is>
       </c>
       <c r="D11" s="14" t="n">
@@ -7612,17 +5238,17 @@
       </c>
       <c r="F11" s="14" t="inlineStr">
         <is>
-          <t>SmartBI</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G11" s="14" t="inlineStr">
         <is>
-          <t>长亮科技企业级调度平台v2.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H11" s="14" t="inlineStr">
         <is>
-          <t>长亮科技数据开发平台v2.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="I11" s="14" t="inlineStr">
@@ -7642,12 +5268,12 @@
       </c>
       <c r="L11" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>PC SERVER</t>
         </is>
       </c>
       <c r="M11" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>RHEL6.6 x86-64</t>
         </is>
       </c>
       <c r="N11" s="14" t="inlineStr">
@@ -7658,7 +5284,7 @@
       <c r="O11" s="14" t="n"/>
       <c r="P11" s="14" t="inlineStr">
         <is>
-          <t>监管报送</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q11" s="14" t="inlineStr">
@@ -7673,17 +5299,17 @@
       </c>
       <c r="S11" s="14" t="inlineStr">
         <is>
-          <t>GuassDB 200</t>
+          <t>/</t>
         </is>
       </c>
       <c r="T11" s="37" t="inlineStr">
         <is>
-          <t>2023.1-2023.12</t>
+          <t>/</t>
         </is>
       </c>
       <c r="U11" s="37" t="inlineStr">
         <is>
-          <t>需求分析</t>
+          <t>/</t>
         </is>
       </c>
       <c r="V11" s="14" t="inlineStr">
@@ -7695,21 +5321,23 @@
     <row r="12" ht="15" customHeight="1" s="59">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t>云南红塔银行信贷工厂外围系统配套改造项目-数据平台项目合同</t>
+          <t>中国银行股份有限公司银行卡数据运营服务项目</t>
         </is>
       </c>
       <c r="B12" s="13" t="inlineStr">
         <is>
-          <t>MPP</t>
+          <t>/</t>
         </is>
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>阿里云Maxcompute-Enterprise_v3.18.1-SP003</t>
-        </is>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>6</v>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
         <is>
@@ -7723,17 +5351,17 @@
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
-          <t>阿里云Maxcompute</t>
+          <t>/</t>
         </is>
       </c>
       <c r="H12" s="13" t="inlineStr">
         <is>
-          <t>阿里云dateworks</t>
+          <t>/</t>
         </is>
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>长亮科技数据交换平台v2.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
@@ -7764,7 +5392,7 @@
       <c r="O12" s="13" t="n"/>
       <c r="P12" s="14" t="inlineStr">
         <is>
-          <t>【长亮自研】监管报送，文件传输平台</t>
+          <t>评分卡、一表通、EAST、1104、RDA</t>
         </is>
       </c>
       <c r="Q12" s="13" t="inlineStr">
@@ -7794,39 +5422,37 @@
       </c>
       <c r="V12" s="13" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>/</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15" customFormat="1" customHeight="1" s="31">
       <c r="A13" s="14" t="inlineStr">
         <is>
-          <t>云南红塔银行信贷工厂外围系统配套改造项目-风控平台</t>
+          <t>红塔银行数据中台项目</t>
         </is>
       </c>
       <c r="B13" s="14" t="inlineStr">
         <is>
+          <t>MPP</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
           <t>Maxcompute</t>
         </is>
       </c>
-      <c r="C13" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+      <c r="D13" s="14" t="n">
+        <v>10</v>
       </c>
       <c r="E13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>阿里云</t>
         </is>
       </c>
       <c r="F13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>帆软BI</t>
         </is>
       </c>
       <c r="G13" s="14" t="inlineStr">
@@ -7846,17 +5472,17 @@
       </c>
       <c r="J13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>神马</t>
         </is>
       </c>
       <c r="K13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>阿里云</t>
         </is>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>阿里云</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -7872,1959 +5498,471 @@
       <c r="O13" s="14" t="n"/>
       <c r="P13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>监管报送，管理驾驶舱</t>
         </is>
       </c>
       <c r="Q13" s="14" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>否</t>
         </is>
       </c>
       <c r="R13" s="14" t="inlineStr">
         <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="S13" s="14" t="inlineStr">
+        <is>
+          <t>Maxcompute</t>
+        </is>
+      </c>
+      <c r="T13" s="37" t="inlineStr">
+        <is>
+          <t>2023.11-2024.12</t>
+        </is>
+      </c>
+      <c r="U13" s="37" t="inlineStr">
+        <is>
+          <t>需求分析</t>
+        </is>
+      </c>
+      <c r="V13" s="14" t="inlineStr">
+        <is>
           <t>否</t>
         </is>
       </c>
-      <c r="S13" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T13" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U13" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V13" s="14" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="59">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>云南红塔银行文件传输平台国产化适配项目</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="inlineStr">
-        <is>
-          <t>OceanBase</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>1.1.10</t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据开发平台v2.0</t>
-        </is>
-      </c>
-      <c r="I14" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台v2.0</t>
-        </is>
-      </c>
-      <c r="J14" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据资产管理平台v2.0</t>
-        </is>
-      </c>
-      <c r="K14" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M14" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="13" t="n"/>
+      <c r="H14" s="13" t="n"/>
+      <c r="I14" s="13" t="n"/>
+      <c r="J14" s="13" t="n"/>
+      <c r="K14" s="13" t="n"/>
+      <c r="L14" s="13" t="n"/>
+      <c r="M14" s="13" t="n"/>
+      <c r="N14" s="13" t="n"/>
       <c r="O14" s="13" t="n"/>
-      <c r="P14" s="13" t="inlineStr">
-        <is>
-          <t>【长亮自研】文件传输平台</t>
-        </is>
-      </c>
-      <c r="Q14" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R14" s="14" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="S14" s="13" t="inlineStr">
-        <is>
-          <t>OceanBase</t>
-        </is>
-      </c>
-      <c r="T14" s="13" t="inlineStr">
-        <is>
-          <t>2024.8-2024.9</t>
-        </is>
-      </c>
-      <c r="U14" s="13" t="inlineStr">
-        <is>
-          <t>需求分析</t>
-        </is>
-      </c>
-      <c r="V14" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="P14" s="13" t="n"/>
+      <c r="Q14" s="14" t="n"/>
+      <c r="R14" s="14" t="n"/>
+      <c r="S14" s="13" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="13" t="n"/>
+      <c r="V14" s="13" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="59">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>华润银行操作型数据存储系统等系统开发人力框架协议谈判</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>oracle</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>Oracle biee</t>
-        </is>
-      </c>
-      <c r="G15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
+      <c r="H15" s="13" t="n"/>
+      <c r="I15" s="13" t="n"/>
+      <c r="J15" s="13" t="n"/>
+      <c r="K15" s="13" t="n"/>
+      <c r="L15" s="13" t="n"/>
+      <c r="M15" s="13" t="n"/>
+      <c r="N15" s="13" t="n"/>
       <c r="O15" s="13" t="n"/>
-      <c r="P15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U15" s="38" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P15" s="13" t="n"/>
+      <c r="Q15" s="13" t="n"/>
+      <c r="R15" s="13" t="n"/>
+      <c r="S15" s="13" t="n"/>
+      <c r="T15" s="13" t="n"/>
+      <c r="U15" s="38" t="n"/>
+      <c r="V15" s="13" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1" s="59">
-      <c r="A16" s="26" t="inlineStr">
-        <is>
-          <t>四川银行2024年数字化应用技术服务采购项目-包件一：前端应用开发</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="inlineStr">
-        <is>
-          <t>PostgreSQL 9.2.4</t>
-        </is>
-      </c>
-      <c r="D16" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H16" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">业绩工作台 </t>
-        </is>
-      </c>
-      <c r="I16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N16" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A16" s="26" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="13" t="n"/>
       <c r="O16" s="13" t="n"/>
-      <c r="P16" s="13" t="inlineStr">
-        <is>
-          <t>业绩管理</t>
-        </is>
-      </c>
-      <c r="Q16" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R16" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="S16" s="13" t="inlineStr">
-        <is>
-          <t>达梦</t>
-        </is>
-      </c>
-      <c r="T16" s="13" t="inlineStr">
-        <is>
-          <t>2024.6-2025.06</t>
-        </is>
-      </c>
-      <c r="U16" s="13" t="inlineStr">
-        <is>
-          <t>需求分析</t>
-        </is>
-      </c>
-      <c r="V16" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P16" s="13" t="n"/>
+      <c r="Q16" s="13" t="n"/>
+      <c r="R16" s="13" t="n"/>
+      <c r="S16" s="13" t="n"/>
+      <c r="T16" s="13" t="n"/>
+      <c r="U16" s="13" t="n"/>
+      <c r="V16" s="13" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="59">
-      <c r="A17" s="26" t="inlineStr">
-        <is>
-          <t>大连银行资本计量系统操作风险损失数据收集模块项目</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>TDsql 8.0.33</t>
-        </is>
-      </c>
-      <c r="D17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G17" s="13" t="inlineStr">
-        <is>
-          <t>先进数通数据开发平台</t>
-        </is>
-      </c>
-      <c r="H17" s="13" t="inlineStr">
-        <is>
-          <t>先进数通数据开发平台</t>
-        </is>
-      </c>
-      <c r="I17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L17" s="13" t="inlineStr">
-        <is>
-          <t>浪潮NF5280</t>
-        </is>
-      </c>
-      <c r="M17" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A17" s="26" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="13" t="n"/>
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="13" t="n"/>
+      <c r="L17" s="13" t="n"/>
+      <c r="M17" s="13" t="n"/>
+      <c r="N17" s="13" t="n"/>
       <c r="O17" s="13" t="n"/>
-      <c r="P17" s="13" t="inlineStr">
-        <is>
-          <t>监管报送</t>
-        </is>
-      </c>
-      <c r="Q17" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R17" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V17" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
+      <c r="P17" s="13" t="n"/>
+      <c r="Q17" s="13" t="n"/>
+      <c r="R17" s="13" t="n"/>
+      <c r="S17" s="13" t="n"/>
+      <c r="T17" s="13" t="n"/>
+      <c r="U17" s="13" t="n"/>
+      <c r="V17" s="13" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="59">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">宁波银行个人风控中台自营渠道规则优化项目 </t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="inlineStr">
-        <is>
-          <t>ORACLE</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
+      <c r="H18" s="13" t="n"/>
+      <c r="I18" s="13" t="n"/>
+      <c r="J18" s="13" t="n"/>
+      <c r="K18" s="13" t="n"/>
+      <c r="L18" s="13" t="n"/>
+      <c r="M18" s="13" t="n"/>
+      <c r="N18" s="13" t="n"/>
       <c r="O18" s="13" t="n"/>
-      <c r="P18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q18" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R18" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P18" s="13" t="n"/>
+      <c r="Q18" s="13" t="n"/>
+      <c r="R18" s="13" t="n"/>
+      <c r="S18" s="13" t="n"/>
+      <c r="T18" s="13" t="n"/>
+      <c r="U18" s="13" t="n"/>
+      <c r="V18" s="13" t="n"/>
     </row>
     <row r="19" ht="15" customFormat="1" customHeight="1" s="31">
-      <c r="A19" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 宁波银行个人风控中台自营规则优化项目（单一来源采购）</t>
-        </is>
-      </c>
-      <c r="B19" s="14" t="inlineStr">
-        <is>
-          <t>ORACLE</t>
-        </is>
-      </c>
-      <c r="C19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A19" s="32" t="n"/>
+      <c r="B19" s="14" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="14" t="n"/>
+      <c r="H19" s="14" t="n"/>
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="n"/>
+      <c r="K19" s="14" t="n"/>
+      <c r="L19" s="14" t="n"/>
+      <c r="M19" s="14" t="n"/>
+      <c r="N19" s="14" t="n"/>
       <c r="O19" s="14" t="n"/>
-      <c r="P19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q19" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R19" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T19" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U19" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V19" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P19" s="14" t="n"/>
+      <c r="Q19" s="14" t="n"/>
+      <c r="R19" s="14" t="n"/>
+      <c r="S19" s="14" t="n"/>
+      <c r="T19" s="37" t="n"/>
+      <c r="U19" s="37" t="n"/>
+      <c r="V19" s="14" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="59">
-      <c r="A20" s="26" t="inlineStr">
-        <is>
-          <t>山西农商联合银行智能风险管控平台建设项目</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="inlineStr">
-        <is>
-          <t>OceanBase</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>V3</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M20" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A20" s="26" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
+      <c r="H20" s="13" t="n"/>
+      <c r="I20" s="13" t="n"/>
+      <c r="J20" s="13" t="n"/>
+      <c r="K20" s="13" t="n"/>
+      <c r="L20" s="13" t="n"/>
+      <c r="M20" s="13" t="n"/>
+      <c r="N20" s="13" t="n"/>
       <c r="O20" s="13" t="n"/>
-      <c r="P20" s="13" t="inlineStr">
-        <is>
-          <t>信贷系统</t>
-        </is>
-      </c>
-      <c r="Q20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V20" s="13" t="inlineStr">
-        <is>
-          <t>信创</t>
-        </is>
-      </c>
+      <c r="P20" s="13" t="n"/>
+      <c r="Q20" s="13" t="n"/>
+      <c r="R20" s="13" t="n"/>
+      <c r="S20" s="13" t="n"/>
+      <c r="T20" s="13" t="n"/>
+      <c r="U20" s="13" t="n"/>
+      <c r="V20" s="13" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1" s="59">
-      <c r="A21" s="26" t="inlineStr">
-        <is>
-          <t>平安银行一表通报送项目</t>
-        </is>
-      </c>
-      <c r="B21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A21" s="26" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
+      <c r="H21" s="13" t="n"/>
+      <c r="I21" s="13" t="n"/>
+      <c r="J21" s="13" t="n"/>
+      <c r="K21" s="13" t="n"/>
+      <c r="L21" s="13" t="n"/>
+      <c r="M21" s="13" t="n"/>
+      <c r="N21" s="13" t="n"/>
       <c r="O21" s="13" t="n"/>
-      <c r="P21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P21" s="13" t="n"/>
+      <c r="Q21" s="13" t="n"/>
+      <c r="R21" s="13" t="n"/>
+      <c r="S21" s="13" t="n"/>
+      <c r="T21" s="13" t="n"/>
+      <c r="U21" s="13" t="n"/>
+      <c r="V21" s="13" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="59">
-      <c r="A22" s="26" t="inlineStr">
-        <is>
-          <t>恒丰银行2024年工作量外包入围项目(2024.01.01-2024.12.31)</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C22" s="13" t="inlineStr">
-        <is>
-          <t>GaussDB 200</t>
-        </is>
-      </c>
-      <c r="D22" s="29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G22" s="13" t="inlineStr">
-        <is>
-          <t>鲁班</t>
-        </is>
-      </c>
-      <c r="H22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K22" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A22" s="26" t="n"/>
+      <c r="B22" s="13" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="29" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="13" t="n"/>
+      <c r="H22" s="13" t="n"/>
+      <c r="I22" s="13" t="n"/>
+      <c r="J22" s="13" t="n"/>
+      <c r="K22" s="13" t="n"/>
+      <c r="L22" s="13" t="n"/>
+      <c r="M22" s="13" t="n"/>
+      <c r="N22" s="13" t="n"/>
       <c r="O22" s="13" t="n"/>
-      <c r="P22" s="13" t="inlineStr">
-        <is>
-          <t>监管报送</t>
-        </is>
-      </c>
-      <c r="Q22" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R22" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V22" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P22" s="13" t="n"/>
+      <c r="Q22" s="13" t="n"/>
+      <c r="R22" s="13" t="n"/>
+      <c r="S22" s="13" t="n"/>
+      <c r="T22" s="13" t="n"/>
+      <c r="U22" s="13" t="n"/>
+      <c r="V22" s="13" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="59">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>恒丰银行品牌金应用等应用维保项目(2023.01.01-2023.12.31)</t>
-        </is>
-      </c>
-      <c r="B23" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="inlineStr">
-        <is>
-          <t>GaussDB 200</t>
-        </is>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G23" s="13" t="inlineStr">
-        <is>
-          <t>鲁班</t>
-        </is>
-      </c>
-      <c r="H23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K23" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
+      <c r="H23" s="13" t="n"/>
+      <c r="I23" s="13" t="n"/>
+      <c r="J23" s="13" t="n"/>
+      <c r="K23" s="13" t="n"/>
+      <c r="L23" s="13" t="n"/>
+      <c r="M23" s="13" t="n"/>
+      <c r="N23" s="13" t="n"/>
       <c r="O23" s="13" t="n"/>
-      <c r="P23" s="13" t="inlineStr">
-        <is>
-          <t>监管报送</t>
-        </is>
-      </c>
-      <c r="Q23" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R23" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V23" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P23" s="13" t="n"/>
+      <c r="Q23" s="13" t="n"/>
+      <c r="R23" s="13" t="n"/>
+      <c r="S23" s="13" t="n"/>
+      <c r="T23" s="13" t="n"/>
+      <c r="U23" s="13" t="n"/>
+      <c r="V23" s="13" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1" s="59">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>恒丰银行数据交换平台项目</t>
-        </is>
-      </c>
-      <c r="B24" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C24" s="13" t="inlineStr">
-        <is>
-          <t>GaussDB 200</t>
-        </is>
-      </c>
-      <c r="D24" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="G24" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台v2.0</t>
-        </is>
-      </c>
-      <c r="H24" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据开发平台v2.0</t>
-        </is>
-      </c>
-      <c r="I24" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台v2.0</t>
-        </is>
-      </c>
-      <c r="J24" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据资产管理平台v2.0</t>
-        </is>
-      </c>
-      <c r="K24" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L24" s="13" t="inlineStr">
-        <is>
-          <t>浪潮NF5280</t>
-        </is>
-      </c>
-      <c r="M24" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N24" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A24" s="13" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
+      <c r="H24" s="13" t="n"/>
+      <c r="I24" s="13" t="n"/>
+      <c r="J24" s="13" t="n"/>
+      <c r="K24" s="13" t="n"/>
+      <c r="L24" s="13" t="n"/>
+      <c r="M24" s="13" t="n"/>
+      <c r="N24" s="13" t="n"/>
       <c r="O24" s="13" t="n"/>
-      <c r="P24" s="13" t="inlineStr">
-        <is>
-          <t>【长亮自研】监管报送，管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q24" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R24" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="S24" s="13" t="inlineStr">
-        <is>
-          <t>GuassDB 200</t>
-        </is>
-      </c>
-      <c r="T24" s="13" t="inlineStr">
-        <is>
-          <t>2023.1-2023.12</t>
-        </is>
-      </c>
-      <c r="U24" s="13" t="inlineStr">
-        <is>
-          <t>需求分析</t>
-        </is>
-      </c>
-      <c r="V24" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P24" s="13" t="n"/>
+      <c r="Q24" s="13" t="n"/>
+      <c r="R24" s="13" t="n"/>
+      <c r="S24" s="13" t="n"/>
+      <c r="T24" s="13" t="n"/>
+      <c r="U24" s="13" t="n"/>
+      <c r="V24" s="13" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="59">
-      <c r="A25" s="13" t="inlineStr">
-        <is>
-          <t>数据中台配套改造</t>
-        </is>
-      </c>
-      <c r="B25" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="inlineStr">
-        <is>
-          <t>Gbase9.5.3.26.5dad792a</t>
-        </is>
-      </c>
-      <c r="D25" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G25" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台v2.0</t>
-        </is>
-      </c>
-      <c r="H25" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据开发平台v2.0</t>
-        </is>
-      </c>
-      <c r="I25" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台</t>
-        </is>
-      </c>
-      <c r="J25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K25" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L25" s="13" t="inlineStr">
-        <is>
-          <t>centos7</t>
-        </is>
-      </c>
-      <c r="M25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
+      <c r="H25" s="13" t="n"/>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="13" t="n"/>
+      <c r="K25" s="13" t="n"/>
+      <c r="L25" s="13" t="n"/>
+      <c r="M25" s="13" t="n"/>
+      <c r="N25" s="13" t="n"/>
       <c r="O25" s="13" t="n"/>
-      <c r="P25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R25" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P25" s="13" t="n"/>
+      <c r="Q25" s="13" t="n"/>
+      <c r="R25" s="13" t="n"/>
+      <c r="S25" s="13" t="n"/>
+      <c r="T25" s="13" t="n"/>
+      <c r="U25" s="13" t="n"/>
+      <c r="V25" s="13" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="59">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>河北银行2024年存款保险同一存款人人力外包项目</t>
-        </is>
-      </c>
-      <c r="B26" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C26" s="13" t="inlineStr">
-        <is>
-          <t>GaussDB 200</t>
-        </is>
-      </c>
-      <c r="D26" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
+      <c r="H26" s="13" t="n"/>
+      <c r="I26" s="13" t="n"/>
+      <c r="J26" s="13" t="n"/>
+      <c r="K26" s="13" t="n"/>
+      <c r="L26" s="13" t="n"/>
+      <c r="M26" s="13" t="n"/>
+      <c r="N26" s="13" t="n"/>
       <c r="O26" s="13" t="n"/>
-      <c r="P26" s="13" t="inlineStr">
-        <is>
-          <t>【长亮自研】监管报送</t>
-        </is>
-      </c>
-      <c r="Q26" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P26" s="13" t="n"/>
+      <c r="Q26" s="13" t="n"/>
+      <c r="R26" s="13" t="n"/>
+      <c r="S26" s="13" t="n"/>
+      <c r="T26" s="13" t="n"/>
+      <c r="U26" s="13" t="n"/>
+      <c r="V26" s="13" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="59">
-      <c r="A27" s="13" t="inlineStr">
-        <is>
-          <t>潍坊银行统一数据应用门户系统二期项目软件开发合同</t>
-        </is>
-      </c>
-      <c r="B27" s="13" t="inlineStr">
-        <is>
-          <t>ORACLE</t>
-        </is>
-      </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>ORACLE19C</t>
-        </is>
-      </c>
-      <c r="D27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K27" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L27" s="13" t="inlineStr">
-        <is>
-          <t>centos7</t>
-        </is>
-      </c>
-      <c r="M27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
+      <c r="H27" s="13" t="n"/>
+      <c r="I27" s="13" t="n"/>
+      <c r="J27" s="13" t="n"/>
+      <c r="K27" s="13" t="n"/>
+      <c r="L27" s="13" t="n"/>
+      <c r="M27" s="13" t="n"/>
+      <c r="N27" s="13" t="n"/>
       <c r="O27" s="13" t="n"/>
-      <c r="P27" s="13" t="inlineStr">
-        <is>
-          <t>指标平台</t>
-        </is>
-      </c>
-      <c r="Q27" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R27" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U27" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V27" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P27" s="13" t="n"/>
+      <c r="Q27" s="13" t="n"/>
+      <c r="R27" s="13" t="n"/>
+      <c r="S27" s="13" t="n"/>
+      <c r="T27" s="13" t="n"/>
+      <c r="U27" s="13" t="n"/>
+      <c r="V27" s="13" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1" s="59">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>烟台银行数据补录系统</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>GaussDB 200</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="G28" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台v2.0</t>
-        </is>
-      </c>
-      <c r="H28" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据开发平台v2.0</t>
-        </is>
-      </c>
-      <c r="I28" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台v2.0</t>
-        </is>
-      </c>
-      <c r="J28" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据资产管理平台v2.0</t>
-        </is>
-      </c>
-      <c r="K28" s="13" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L28" s="13" t="inlineStr">
-        <is>
-          <t>浪潮NF5280</t>
-        </is>
-      </c>
-      <c r="M28" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N28" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A28" s="13" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="13" t="n"/>
+      <c r="H28" s="13" t="n"/>
+      <c r="I28" s="13" t="n"/>
+      <c r="J28" s="13" t="n"/>
+      <c r="K28" s="13" t="n"/>
+      <c r="L28" s="13" t="n"/>
+      <c r="M28" s="13" t="n"/>
+      <c r="N28" s="13" t="n"/>
       <c r="O28" s="13" t="n"/>
-      <c r="P28" s="13" t="inlineStr">
-        <is>
-          <t>【长亮自研】监管报送，管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q28" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R28" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="S28" s="13" t="inlineStr">
-        <is>
-          <t>GuassDB 200</t>
-        </is>
-      </c>
-      <c r="T28" s="13" t="inlineStr">
-        <is>
-          <t>2023.1-2023.12</t>
-        </is>
-      </c>
-      <c r="U28" s="13" t="inlineStr">
-        <is>
-          <t>需求分析</t>
-        </is>
-      </c>
-      <c r="V28" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P28" s="13" t="n"/>
+      <c r="Q28" s="13" t="n"/>
+      <c r="R28" s="13" t="n"/>
+      <c r="S28" s="13" t="n"/>
+      <c r="T28" s="13" t="n"/>
+      <c r="U28" s="13" t="n"/>
+      <c r="V28" s="13" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1" s="59">
-      <c r="A29" s="13" t="inlineStr">
-        <is>
-          <t>郑州银行2024年基础数据模型优化项目</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="E29" s="13" t="inlineStr">
-        <is>
-          <t>北京华毅</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G29" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台（EJCM）</t>
-        </is>
-      </c>
-      <c r="H29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I29" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台</t>
-        </is>
-      </c>
-      <c r="J29" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据资产管理平台</t>
-        </is>
-      </c>
-      <c r="K29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M29" s="13" t="inlineStr">
-        <is>
-          <t>redhat7.9</t>
-        </is>
-      </c>
-      <c r="N29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="13" t="n"/>
+      <c r="H29" s="13" t="n"/>
+      <c r="I29" s="13" t="n"/>
+      <c r="J29" s="13" t="n"/>
+      <c r="K29" s="13" t="n"/>
+      <c r="L29" s="13" t="n"/>
+      <c r="M29" s="13" t="n"/>
+      <c r="N29" s="13" t="n"/>
       <c r="O29" s="13" t="n"/>
-      <c r="P29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P29" s="13" t="n"/>
+      <c r="Q29" s="13" t="n"/>
+      <c r="R29" s="13" t="n"/>
+      <c r="S29" s="13" t="n"/>
+      <c r="T29" s="13" t="n"/>
+      <c r="U29" s="13" t="n"/>
+      <c r="V29" s="13" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1" s="59">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>陕西金资新一代核心系统功能优化升级项目</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="inlineStr">
-        <is>
-          <t>RDBMS</t>
-        </is>
-      </c>
-      <c r="C30" s="13" t="inlineStr">
-        <is>
-          <t>MySQL5.73</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F30" s="13" t="inlineStr">
-        <is>
-          <t>FanruanBI</t>
-        </is>
-      </c>
-      <c r="G30" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台v2.0</t>
-        </is>
-      </c>
-      <c r="H30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I30" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台v2.0</t>
-        </is>
-      </c>
-      <c r="J30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L30" s="13" t="inlineStr">
-        <is>
-          <t>华为云</t>
-        </is>
-      </c>
-      <c r="M30" s="13" t="inlineStr">
-        <is>
-          <t>CentOS7.9.2009</t>
-        </is>
-      </c>
-      <c r="N30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A30" s="13" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="13" t="n"/>
+      <c r="H30" s="13" t="n"/>
+      <c r="I30" s="13" t="n"/>
+      <c r="J30" s="13" t="n"/>
+      <c r="K30" s="13" t="n"/>
+      <c r="L30" s="13" t="n"/>
+      <c r="M30" s="13" t="n"/>
+      <c r="N30" s="13" t="n"/>
       <c r="O30" s="13" t="n"/>
-      <c r="P30" s="13" t="inlineStr">
-        <is>
-          <t>管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q30" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R30" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V30" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P30" s="13" t="n"/>
+      <c r="Q30" s="13" t="n"/>
+      <c r="R30" s="13" t="n"/>
+      <c r="S30" s="13" t="n"/>
+      <c r="T30" s="13" t="n"/>
+      <c r="U30" s="13" t="n"/>
+      <c r="V30" s="13" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1" s="59">
-      <c r="A31" s="13" t="inlineStr">
-        <is>
-          <t>齐鲁银行指标平台项目</t>
-        </is>
-      </c>
-      <c r="B31" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C31" s="13" t="inlineStr">
-        <is>
-          <t>GaussDB 200</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="G31" s="13" t="inlineStr">
-        <is>
-          <t>先进数通moia</t>
-        </is>
-      </c>
-      <c r="H31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L31" s="13" t="inlineStr">
-        <is>
-          <t>浪潮NF5280</t>
-        </is>
-      </c>
-      <c r="M31" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A31" s="13" t="n"/>
+      <c r="B31" s="13" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
+      <c r="G31" s="13" t="n"/>
+      <c r="H31" s="13" t="n"/>
+      <c r="I31" s="13" t="n"/>
+      <c r="J31" s="13" t="n"/>
+      <c r="K31" s="13" t="n"/>
+      <c r="L31" s="13" t="n"/>
+      <c r="M31" s="13" t="n"/>
+      <c r="N31" s="13" t="n"/>
       <c r="O31" s="13" t="n"/>
-      <c r="P31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P31" s="13" t="n"/>
+      <c r="Q31" s="13" t="n"/>
+      <c r="R31" s="13" t="n"/>
+      <c r="S31" s="13" t="n"/>
+      <c r="T31" s="13" t="n"/>
+      <c r="U31" s="13" t="n"/>
+      <c r="V31" s="13" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1" s="59">
       <c r="A32" s="13" t="n"/>
@@ -10798,7 +6936,7 @@
     <row r="4" ht="15" customFormat="1" customHeight="1" s="19">
       <c r="A4" s="26" t="inlineStr">
         <is>
-          <t>交通银行2024-2027年开发服务采购框架协议</t>
+          <t>企业级数据仓库迁移项目（二期）项目</t>
         </is>
       </c>
       <c r="B4" s="26" t="inlineStr">
@@ -10823,12 +6961,12 @@
       </c>
       <c r="F4" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="G4" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Teradata</t>
         </is>
       </c>
       <c r="H4" s="26" t="n"/>
@@ -10836,7 +6974,7 @@
     <row r="5" ht="15" customFormat="1" customHeight="1" s="20">
       <c r="A5" s="27" t="inlineStr">
         <is>
-          <t>云南红塔银行数字普惠系统全普一期项目-模型平台配合改造项目</t>
+          <t>上海农商行2023年度内部评级系统、风险加权资产计量系统（C模式）框架协议（2023.3.24-2024.6.30）-2023年结算</t>
         </is>
       </c>
       <c r="B5" s="27" t="inlineStr">
@@ -10861,12 +6999,12 @@
       </c>
       <c r="F5" s="27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>ODS</t>
         </is>
       </c>
       <c r="G5" s="27" t="inlineStr">
         <is>
-          <t>同盾</t>
+          <t>安硕</t>
         </is>
       </c>
       <c r="H5" s="27" t="n"/>
@@ -10874,7 +7012,7 @@
     <row r="6" ht="15" customFormat="1" customHeight="1" s="19">
       <c r="A6" s="28" t="inlineStr">
         <is>
-          <t>上海农商行2024年度信用风险集市系统（C模式）框架协议（2024.7.1-2025.6.30）—2024年结算</t>
+          <t>上海农村商业银行股份有限公司2023年度企业级数据仓库和数据模型系统增选开发维护服务（C模式）框架</t>
         </is>
       </c>
       <c r="B6" s="26" t="inlineStr">
@@ -10884,7 +7022,7 @@
       </c>
       <c r="C6" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>是</t>
         </is>
       </c>
       <c r="D6" s="26" t="inlineStr">
@@ -10899,12 +7037,12 @@
       </c>
       <c r="F6" s="26" t="inlineStr">
         <is>
-          <t>数据仓库/明细集市/共享平台</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="G6" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>TD</t>
         </is>
       </c>
       <c r="H6" s="26" t="n"/>
@@ -10912,7 +7050,7 @@
     <row r="7" ht="15" customHeight="1" s="59">
       <c r="A7" s="28" t="inlineStr">
         <is>
-          <t>上海农商银行企业级数据仓库二代模型模块C模式增补初中级人员项目</t>
+          <t>东亚银行标签平台</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -10937,7 +7075,7 @@
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>大数据平台</t>
         </is>
       </c>
       <c r="G7" s="13" t="inlineStr">
@@ -10950,25 +7088,27 @@
     <row r="8" ht="15" customHeight="1" s="59">
       <c r="A8" s="28" t="inlineStr">
         <is>
-          <t>中国电财-2024年数据管理及数据共享服务系统（五期）-数据工程项目-成本</t>
+          <t>东莞银行数据治理项目</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>SmartBI</t>
+          <t>/</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>2</v>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>/</t>
         </is>
       </c>
       <c r="F8" s="13" t="inlineStr">
@@ -10986,7 +7126,7 @@
     <row r="9" ht="15" customHeight="1" s="59">
       <c r="A9" s="26" t="inlineStr">
         <is>
-          <t>中国电财-2024年数据管理及数据共享服务系统（五期）-数据工程项目-资本</t>
+          <t>中信财务数据治理和数据中台建设项目</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -11000,7 +7140,7 @@
         </is>
       </c>
       <c r="D9" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="13" t="inlineStr">
         <is>
@@ -11009,7 +7149,7 @@
       </c>
       <c r="F9" s="13" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="G9" s="13" t="inlineStr">
@@ -11022,32 +7162,30 @@
     <row r="10" ht="15" customHeight="1" s="59">
       <c r="A10" s="26" t="inlineStr">
         <is>
-          <t>中广核财务1104表样及取数逻辑更新软件升级服务合同</t>
+          <t>中化财务数据平台2023年优化升级项目</t>
         </is>
       </c>
       <c r="B10" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>SmartBI</t>
         </is>
       </c>
       <c r="C10" s="26" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="D10" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D10" s="26" t="n">
+        <v>2</v>
       </c>
       <c r="E10" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="F10" s="26" t="inlineStr">
         <is>
-          <t>业务系统</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G10" s="26" t="inlineStr">
@@ -11060,12 +7198,12 @@
     <row r="11" ht="15" customFormat="1" customHeight="1" s="19">
       <c r="A11" s="26" t="inlineStr">
         <is>
-          <t>中广核财务监管报送系统运维服务合同</t>
+          <t>中国银行应用软件支持服务（MUREX）项目</t>
         </is>
       </c>
       <c r="B11" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Datamart</t>
         </is>
       </c>
       <c r="C11" s="26" t="inlineStr">
@@ -11085,12 +7223,12 @@
       </c>
       <c r="F11" s="26" t="inlineStr">
         <is>
-          <t>业务系统</t>
+          <t>外部导入，手工簿记</t>
         </is>
       </c>
       <c r="G11" s="26" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>易九州</t>
         </is>
       </c>
       <c r="H11" s="26" t="n"/>
@@ -11098,7 +7236,7 @@
     <row r="12" ht="15" customHeight="1" s="59">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>云南红塔银行信贷工厂外围系统配套改造项目-数据平台项目合同</t>
+          <t>中国银行股份有限公司银行卡数据运营服务项目</t>
         </is>
       </c>
       <c r="B12" s="13" t="inlineStr">
@@ -11123,7 +7261,7 @@
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>大数据平台</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="G12" s="13" t="inlineStr">
@@ -11136,715 +7274,217 @@
     <row r="13" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A13" s="26" t="inlineStr">
         <is>
-          <t>云南红塔银行信贷工厂外围系统配套改造项目-风控平台</t>
+          <t>红塔银行数据中台项目</t>
         </is>
       </c>
       <c r="B13" s="27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>帆软BI</t>
         </is>
       </c>
       <c r="C13" s="27" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D13" s="27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>2</v>
       </c>
       <c r="E13" s="27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="F13" s="27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>数据仓库</t>
         </is>
       </c>
       <c r="G13" s="27" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>先数</t>
         </is>
       </c>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="59">
-      <c r="A14" s="26" t="inlineStr">
-        <is>
-          <t>云南红塔银行文件传输平台国产化适配项目</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E14" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F14" s="27" t="inlineStr">
-        <is>
-          <t>应用库</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>长亮科技</t>
-        </is>
-      </c>
+      <c r="A14" s="26" t="n"/>
+      <c r="B14" s="27" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
       <c r="H14" s="13" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1" s="59">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>华润银行操作型数据存储系统等系统开发人力框架协议谈判</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G15" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="13" t="n"/>
       <c r="H15" s="13" t="n"/>
     </row>
     <row r="16" ht="15" customFormat="1" customHeight="1" s="19">
-      <c r="A16" s="26" t="inlineStr">
-        <is>
-          <t>四川银行2024年数字化应用技术服务采购项目-包件一：前端应用开发</t>
-        </is>
-      </c>
-      <c r="B16" s="26" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="C16" s="26" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D16" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="26" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="F16" s="26" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G16" s="26" t="inlineStr">
-        <is>
-          <t>宇信</t>
-        </is>
-      </c>
+      <c r="A16" s="26" t="n"/>
+      <c r="B16" s="26" t="n"/>
+      <c r="C16" s="26" t="n"/>
+      <c r="D16" s="26" t="n"/>
+      <c r="E16" s="26" t="n"/>
+      <c r="F16" s="26" t="n"/>
+      <c r="G16" s="26" t="n"/>
       <c r="H16" s="26" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="59">
-      <c r="A17" s="26" t="inlineStr">
-        <is>
-          <t>大连银行资本计量系统操作风险损失数据收集模块项目</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D17" s="29" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E17" s="13" t="inlineStr">
-        <is>
-          <t>TDsql</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>风险集市</t>
-        </is>
-      </c>
-      <c r="G17" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A17" s="26" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="29" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n"/>
       <c r="H17" s="13" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1" s="59">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">宁波银行个人风控中台自营渠道规则优化项目 </t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G18" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n"/>
       <c r="H18" s="13" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1" s="59">
-      <c r="A19" s="30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 宁波银行个人风控中台自营规则优化项目（单一来源采购）</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C19" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D19" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E19" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G19" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="13" t="n"/>
       <c r="H19" s="13" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1" s="59">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>山西农商联合银行智能风险管控平台建设项目</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G20" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="13" t="n"/>
       <c r="H20" s="13" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1" s="59">
-      <c r="A21" s="13" t="inlineStr">
-        <is>
-          <t>平安银行一表通报送项目</t>
-        </is>
-      </c>
-      <c r="B21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G21" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A21" s="13" t="n"/>
+      <c r="B21" s="13" t="n"/>
+      <c r="C21" s="13" t="n"/>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="13" t="n"/>
       <c r="H21" s="13" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1" s="59">
-      <c r="A22" s="13" t="inlineStr">
-        <is>
-          <t>恒丰银行2024年工作量外包入围项目(2024.01.01-2024.12.31)</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>监管集市</t>
-        </is>
-      </c>
-      <c r="G22" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A22" s="13" t="n"/>
+      <c r="B22" s="13" t="n"/>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="13" t="n"/>
       <c r="H22" s="13" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1" s="59">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>恒丰银行品牌金应用等应用维保项目(2023.01.01-2023.12.31)</t>
-        </is>
-      </c>
-      <c r="B23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>监管集市</t>
-        </is>
-      </c>
-      <c r="G23" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A23" s="13" t="n"/>
+      <c r="B23" s="13" t="n"/>
+      <c r="C23" s="13" t="n"/>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="13" t="n"/>
       <c r="H23" s="13" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1" s="59">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>恒丰银行数据交换平台项目</t>
-        </is>
-      </c>
-      <c r="B24" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="C24" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D24" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="13" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G24" s="13" t="inlineStr">
-        <is>
-          <t>宇信</t>
-        </is>
-      </c>
+      <c r="A24" s="13" t="n"/>
+      <c r="B24" s="13" t="n"/>
+      <c r="C24" s="13" t="n"/>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="13" t="n"/>
       <c r="H24" s="13" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="59">
-      <c r="A25" s="13" t="inlineStr">
-        <is>
-          <t>数据中台配套改造</t>
-        </is>
-      </c>
-      <c r="B25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G25" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A25" s="13" t="n"/>
+      <c r="B25" s="13" t="n"/>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="13" t="n"/>
       <c r="H25" s="13" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1" s="59">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>河北银行2024年存款保险同一存款人人力外包项目</t>
-        </is>
-      </c>
-      <c r="B26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>数据集市</t>
-        </is>
-      </c>
-      <c r="G26" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A26" s="13" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="13" t="n"/>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="13" t="n"/>
       <c r="H26" s="13" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1" s="59">
-      <c r="A27" s="13" t="inlineStr">
-        <is>
-          <t>潍坊银行统一数据应用门户系统二期项目软件开发合同</t>
-        </is>
-      </c>
-      <c r="B27" s="13" t="inlineStr">
-        <is>
-          <t>finebi</t>
-        </is>
-      </c>
-      <c r="C27" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D27" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>大数据平台</t>
-        </is>
-      </c>
-      <c r="G27" s="13" t="inlineStr">
-        <is>
-          <t>帆软</t>
-        </is>
-      </c>
+      <c r="A27" s="13" t="n"/>
+      <c r="B27" s="13" t="n"/>
+      <c r="C27" s="13" t="n"/>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="13" t="n"/>
       <c r="H27" s="13" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1" s="59">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>烟台银行数据补录系统</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="C28" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="13" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G28" s="13" t="inlineStr">
-        <is>
-          <t>宇信</t>
-        </is>
-      </c>
+      <c r="A28" s="13" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="13" t="n"/>
       <c r="H28" s="13" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1" s="59">
-      <c r="A29" s="13" t="inlineStr">
-        <is>
-          <t>郑州银行2024年基础数据模型优化项目</t>
-        </is>
-      </c>
-      <c r="B29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G29" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A29" s="13" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="13" t="n"/>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="13" t="n"/>
       <c r="H29" s="13" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1" s="59">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>陕西金资新一代核心系统功能优化升级项目</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="inlineStr">
-        <is>
-          <t>FanruanBI</t>
-        </is>
-      </c>
-      <c r="C30" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="D30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E30" s="13" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F30" s="13" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G30" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A30" s="13" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="13" t="n"/>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="13" t="n"/>
       <c r="H30" s="13" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1" s="59">
-      <c r="A31" s="13" t="inlineStr">
-        <is>
-          <t>齐鲁银行指标平台项目</t>
-        </is>
-      </c>
-      <c r="B31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G31" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A31" s="13" t="n"/>
+      <c r="B31" s="13" t="n"/>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="13" t="n"/>
+      <c r="G31" s="13" t="n"/>
       <c r="H31" s="13" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1" s="59">
@@ -12242,7 +7882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -12313,7 +7953,7 @@
       <c r="A2" s="13" t="n"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>交通银行</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="C2" s="10" t="inlineStr">
@@ -12337,11 +7977,6 @@
     </row>
     <row r="3" ht="15" customHeight="1" s="59">
       <c r="A3" s="13" t="n"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>四川银行</t>
-        </is>
-      </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
           <t>城商行</t>
@@ -12363,11 +7998,6 @@
     </row>
     <row r="4" ht="15" customHeight="1" s="59">
       <c r="A4" s="13" t="n"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>上海农商行</t>
-        </is>
-      </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
           <t>农商行</t>
@@ -12388,11 +8018,6 @@
     </row>
     <row r="5" ht="15" customHeight="1" s="59">
       <c r="A5" s="13" t="n"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>陕西资产管理股份有限公司</t>
-        </is>
-      </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
           <t>民营银行</t>
@@ -12413,11 +8038,6 @@
     </row>
     <row r="6" ht="15" customHeight="1" s="59">
       <c r="A6" s="13" t="n"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>郑州银行</t>
-        </is>
-      </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12438,11 +8058,6 @@
     </row>
     <row r="7" ht="15" customHeight="1" s="59">
       <c r="A7" s="13" t="n"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>华润银行</t>
-        </is>
-      </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12463,11 +8078,6 @@
     </row>
     <row r="8" ht="15" customHeight="1" s="59">
       <c r="A8" s="13" t="n"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>云南红塔银行</t>
-        </is>
-      </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12488,11 +8098,6 @@
     </row>
     <row r="9" ht="15" customHeight="1" s="59">
       <c r="A9" s="13" t="n"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>中广核财务公司</t>
-        </is>
-      </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12513,11 +8118,6 @@
     </row>
     <row r="10" ht="15" customHeight="1" s="59">
       <c r="A10" s="13" t="n"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>宁波银行</t>
-        </is>
-      </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12538,11 +8138,6 @@
     </row>
     <row r="11" ht="15" customHeight="1" s="59">
       <c r="A11" s="13" t="n"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>平安银行</t>
-        </is>
-      </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12563,11 +8158,6 @@
     </row>
     <row r="12" ht="15" customHeight="1" s="59">
       <c r="A12" s="13" t="n"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>中国电财</t>
-        </is>
-      </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12588,11 +8178,6 @@
     </row>
     <row r="13" ht="15" customHeight="1" s="59">
       <c r="A13" s="13" t="n"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>山西农信</t>
-        </is>
-      </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12613,11 +8198,6 @@
     </row>
     <row r="14" ht="15" customHeight="1" s="59">
       <c r="A14" s="13" t="n"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>大连银行</t>
-        </is>
-      </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12638,11 +8218,6 @@
     </row>
     <row r="15" ht="15" customHeight="1" s="59">
       <c r="A15" s="13" t="n"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>红塔银行</t>
-        </is>
-      </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12663,11 +8238,6 @@
     </row>
     <row r="16" ht="15" customHeight="1" s="59">
       <c r="A16" s="13" t="n"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>上海农商</t>
-        </is>
-      </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12688,11 +8258,7 @@
     </row>
     <row r="17" ht="15" customHeight="1" s="59">
       <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>恒丰银行</t>
-        </is>
-      </c>
+      <c r="B17" s="13" t="n"/>
       <c r="C17" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12713,11 +8279,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" s="59">
       <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="inlineStr">
-        <is>
-          <t>齐鲁银行</t>
-        </is>
-      </c>
+      <c r="B18" s="13" t="n"/>
       <c r="C18" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12738,11 +8300,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" s="59">
       <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="inlineStr">
-        <is>
-          <t>烟台银行</t>
-        </is>
-      </c>
+      <c r="B19" s="13" t="n"/>
       <c r="C19" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12763,11 +8321,7 @@
     </row>
     <row r="20" ht="15" customHeight="1" s="59">
       <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="inlineStr">
-        <is>
-          <t>潍坊银行</t>
-        </is>
-      </c>
+      <c r="B20" s="13" t="n"/>
       <c r="C20" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12788,11 +8342,7 @@
     </row>
     <row r="21" ht="15" customHeight="1" s="59">
       <c r="A21" s="13" t="n"/>
-      <c r="B21" s="13" t="inlineStr">
-        <is>
-          <t>河北银行</t>
-        </is>
-      </c>
+      <c r="B21" s="13" t="n"/>
       <c r="C21" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12813,11 +8363,7 @@
     </row>
     <row r="22" ht="15" customHeight="1" s="59">
       <c r="A22" s="13" t="n"/>
-      <c r="B22" s="13" t="inlineStr">
-        <is>
-          <t>承德银行</t>
-        </is>
-      </c>
+      <c r="B22" s="13" t="n"/>
       <c r="C22" s="10" t="inlineStr">
         <is>
           <t>村镇银行</t>
@@ -12840,8 +8386,14 @@
       <c r="A23" s="13" t="n"/>
       <c r="B23" s="13" t="n"/>
       <c r="C23" s="13" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="13" t="n"/>
+      <c r="D23" s="13">
+        <f>VLOOKUP(C23,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E23" s="13">
+        <f>VLOOKUP(C23,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F23" s="13" t="n"/>
       <c r="G23" s="13" t="n"/>
       <c r="H23" s="13" t="n"/>
@@ -12851,8 +8403,14 @@
       <c r="A24" s="13" t="n"/>
       <c r="B24" s="13" t="n"/>
       <c r="C24" s="13" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="13" t="n"/>
+      <c r="D24" s="13">
+        <f>VLOOKUP(C24,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E24" s="13">
+        <f>VLOOKUP(C24,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F24" s="13" t="n"/>
       <c r="G24" s="13" t="n"/>
       <c r="H24" s="13" t="n"/>
@@ -12862,8 +8420,14 @@
       <c r="A25" s="13" t="n"/>
       <c r="B25" s="13" t="n"/>
       <c r="C25" s="13" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="13" t="n"/>
+      <c r="D25" s="13">
+        <f>VLOOKUP(C25,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E25" s="13">
+        <f>VLOOKUP(C25,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F25" s="13" t="n"/>
       <c r="G25" s="13" t="n"/>
       <c r="H25" s="13" t="n"/>
@@ -12873,8 +8437,14 @@
       <c r="A26" s="13" t="n"/>
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
+      <c r="D26" s="13">
+        <f>VLOOKUP(C26,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E26" s="13">
+        <f>VLOOKUP(C26,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F26" s="13" t="n"/>
       <c r="G26" s="13" t="n"/>
       <c r="H26" s="13" t="n"/>
@@ -12884,8 +8454,14 @@
       <c r="A27" s="13" t="n"/>
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="13" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="13" t="n"/>
+      <c r="D27" s="13">
+        <f>VLOOKUP(C27,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E27" s="13">
+        <f>VLOOKUP(C27,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F27" s="13" t="n"/>
       <c r="G27" s="13" t="n"/>
       <c r="H27" s="13" t="n"/>
@@ -12895,22 +8471,61 @@
       <c r="A28" s="13" t="n"/>
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="13" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="13" t="n"/>
+      <c r="D28" s="13">
+        <f>VLOOKUP(C28,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E28" s="13">
+        <f>VLOOKUP(C28,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F28" s="13" t="n"/>
       <c r="G28" s="13" t="n"/>
       <c r="H28" s="13" t="n"/>
       <c r="I28" s="13" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1" s="59"/>
-    <row r="30" ht="15" customHeight="1" s="59"/>
-    <row r="31" ht="15" customHeight="1" s="59"/>
+    <row r="29" ht="15" customHeight="1" s="59">
+      <c r="D29">
+        <f>VLOOKUP(C29,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(C29,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="59">
+      <c r="D30">
+        <f>VLOOKUP(C30,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(C30,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="59">
+      <c r="D31">
+        <f>VLOOKUP(C31,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(C31,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="32" ht="15" customHeight="1" s="59">
       <c r="A32" s="13" t="n"/>
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="13" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
+      <c r="D32" s="13">
+        <f>VLOOKUP(C32,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E32" s="13">
+        <f>VLOOKUP(C32,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F32" s="13" t="n"/>
       <c r="G32" s="13" t="n"/>
       <c r="H32" s="13" t="n"/>
@@ -12920,8 +8535,14 @@
       <c r="A33" s="13" t="n"/>
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="13" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="13" t="n"/>
+      <c r="D33" s="13">
+        <f>VLOOKUP(C33,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E33" s="13">
+        <f>VLOOKUP(C33,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F33" s="13" t="n"/>
       <c r="G33" s="13" t="n"/>
       <c r="H33" s="13" t="n"/>
@@ -12931,8 +8552,14 @@
       <c r="A34" s="13" t="n"/>
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="13" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="13" t="n"/>
+      <c r="D34" s="13">
+        <f>VLOOKUP(C34,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E34" s="13">
+        <f>VLOOKUP(C34,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F34" s="13" t="n"/>
       <c r="G34" s="13" t="n"/>
       <c r="H34" s="13" t="n"/>
@@ -12942,8 +8569,14 @@
       <c r="A35" s="13" t="n"/>
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="13" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="13" t="n"/>
+      <c r="D35" s="13">
+        <f>VLOOKUP(C35,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E35" s="13">
+        <f>VLOOKUP(C35,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F35" s="13" t="n"/>
       <c r="G35" s="13" t="n"/>
       <c r="H35" s="13" t="n"/>
@@ -12953,22 +8586,109 @@
       <c r="A36" s="13" t="n"/>
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="13" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="13" t="n"/>
+      <c r="D36" s="13">
+        <f>VLOOKUP(C36,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E36" s="13">
+        <f>VLOOKUP(C36,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
       <c r="F36" s="13" t="n"/>
       <c r="G36" s="13" t="n"/>
       <c r="H36" s="13" t="n"/>
       <c r="I36" s="13" t="n"/>
     </row>
-    <row r="37" ht="15" customHeight="1" s="59"/>
-    <row r="38" ht="15" customHeight="1" s="59"/>
-    <row r="39" ht="15" customHeight="1" s="59"/>
-    <row r="40" ht="15" customHeight="1" s="59"/>
-    <row r="41" ht="15" customHeight="1" s="59"/>
-    <row r="42" ht="15" customHeight="1" s="59"/>
-    <row r="43" ht="15" customHeight="1" s="59"/>
-    <row r="44" ht="15" customHeight="1" s="59"/>
-    <row r="45" ht="15" customHeight="1" s="59"/>
+    <row r="37" ht="15" customHeight="1" s="59">
+      <c r="D37">
+        <f>VLOOKUP(C37,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(C37,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="59">
+      <c r="D38">
+        <f>VLOOKUP(C38,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(C38,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="59">
+      <c r="D39">
+        <f>VLOOKUP(C39,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(C39,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="59">
+      <c r="D40">
+        <f>VLOOKUP(C40,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(C40,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="59">
+      <c r="D41">
+        <f>VLOOKUP(C41,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(C41,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="59">
+      <c r="D42">
+        <f>VLOOKUP(C42,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(C42,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="59">
+      <c r="D43">
+        <f>VLOOKUP(C43,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(C43,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="59">
+      <c r="D44">
+        <f>VLOOKUP(C44,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(C44,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="59">
+      <c r="D45">
+        <f>VLOOKUP(C45,'附1-客户类型总览'!A:B,2,0)</f>
+        <v/>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(C45,'附1-客户类型总览'!A:C,3,0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="46" ht="15" customHeight="1" s="59"/>
     <row r="47" ht="15" customHeight="1" s="59"/>
     <row r="48" ht="15" customHeight="1" s="59"/>

--- a/99-0thers/case_collector/1111.xlsx
+++ b/99-0thers/case_collector/1111.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" tabRatio="470" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="文档目录" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="案例清单" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="通用补充信息" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="数据应用类补充信息" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="客户清单" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="附1-客户类型总览" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="附2-解决方案体系" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="文档目录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="案例清单" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="通用补充信息" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="数据应用类补充信息" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="客户清单" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="附1-客户类型总览" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="附2-解决方案体系" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk19805799" localSheetId="1">案例清单!#REF!</definedName>
@@ -766,7 +766,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>11</col>
@@ -784,24 +784,24 @@
       <nvPicPr>
         <cNvPr id="3" name="图片 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7051675" y="314325"/>
           <a:ext cx="960755" cy="334645"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -812,7 +812,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>4</col>
@@ -830,24 +830,24 @@
       <nvPicPr>
         <cNvPr id="2" name="图片 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="4552315" y="104775"/>
           <a:ext cx="8110855" cy="5974080"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1114,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1162,7 +1162,7 @@
     <mergeCell ref="A2:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1569,16 +1569,16 @@
     <row r="4" ht="15.15" customFormat="1" customHeight="1" s="57">
       <c r="A4" s="53" t="inlineStr">
         <is>
-          <t>企业级数据仓库迁移项目（二期）项目</t>
+          <t>xxxxxx</t>
         </is>
       </c>
       <c r="B4" s="54" t="inlineStr">
         <is>
-          <t>&lt;100</t>
+          <t>300-400</t>
         </is>
       </c>
       <c r="C4" s="54" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D4" s="54" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E4" s="54" t="inlineStr">
         <is>
-          <t>上海农商行</t>
+          <t>xxxx</t>
         </is>
       </c>
       <c r="F4" s="54">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="J4" s="55" t="inlineStr">
         <is>
-          <t>金融业务5E部</t>
+          <t>xxx</t>
         </is>
       </c>
       <c r="K4" s="55" t="inlineStr">
@@ -1618,88 +1618,88 @@
       </c>
       <c r="L4" s="55" t="inlineStr">
         <is>
-          <t>奚昊</t>
+          <t>xx</t>
         </is>
       </c>
       <c r="M4" s="55" t="n"/>
       <c r="N4" s="55" t="inlineStr">
         <is>
+          <t>前一个合同的设计项目包含架构、模型、管理规范，实施项目不包含咨询</t>
+        </is>
+      </c>
+      <c r="O4" s="55" t="inlineStr">
+        <is>
+          <t>数据湖、离线数据仓库、实时数据仓库</t>
+        </is>
+      </c>
+      <c r="P4" s="55" t="inlineStr">
+        <is>
+          <t>腾讯的wedata（客户自己直采）</t>
+        </is>
+      </c>
+      <c r="Q4" s="55" t="inlineStr">
+        <is>
           <t>/</t>
         </is>
       </c>
-      <c r="O4" s="55" t="inlineStr">
-        <is>
-          <t>数据迁移</t>
-        </is>
-      </c>
-      <c r="P4" s="55" t="inlineStr">
+      <c r="R4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="Q4" s="55" t="inlineStr">
+      <c r="S4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="R4" s="55" t="inlineStr">
+      <c r="T4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="S4" s="55" t="inlineStr">
+      <c r="U4" s="55" t="inlineStr">
+        <is>
+          <t>wedata的数据服务模块</t>
+        </is>
+      </c>
+      <c r="V4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="T4" s="55" t="inlineStr">
+      <c r="W4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="U4" s="55" t="inlineStr">
+      <c r="X4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="V4" s="55" t="inlineStr">
+      <c r="Y4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="W4" s="55" t="inlineStr">
+      <c r="Z4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="X4" s="55" t="inlineStr">
+      <c r="AA4" s="55" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="Y4" s="55" t="inlineStr">
+      <c r="AB4" s="56" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="Z4" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA4" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB4" s="56" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="AC4" s="54" t="inlineStr">
         <is>
-          <t>2023.05-2023.11</t>
+          <t>xxxxx-xxxxx</t>
         </is>
       </c>
       <c r="AD4" s="54" t="inlineStr">
@@ -1718,17 +1718,17 @@
       <c r="AG4" s="54" t="n"/>
       <c r="AH4" s="54" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>华南</t>
         </is>
       </c>
       <c r="AI4" s="54" t="inlineStr">
         <is>
-          <t>焦郁17317825496</t>
+          <t>xxxxx</t>
         </is>
       </c>
       <c r="AJ4" s="54" t="inlineStr">
         <is>
-          <t>数据迁移集成测试</t>
+          <t>/</t>
         </is>
       </c>
       <c r="AK4" s="53" t="inlineStr">
@@ -1738,1535 +1738,347 @@
       </c>
     </row>
     <row r="5" ht="15.15" customFormat="1" customHeight="1" s="57">
-      <c r="A5" s="53" t="inlineStr">
-        <is>
-          <t>上海农商行2023年度内部评级系统、风险加权资产计量系统（C模式）框架协议（2023.3.24-2024.6.30）-2023年结算</t>
-        </is>
-      </c>
-      <c r="B5" s="54" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C5" s="54" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D5" s="54" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E5" s="54" t="inlineStr">
-        <is>
-          <t>上海农商银行</t>
-        </is>
-      </c>
-      <c r="F5" s="54">
-        <f>IFERROR(VLOOKUP($E5,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="54">
-        <f>IFERROR(VLOOKUP($E5,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H5" s="54">
-        <f>IFERROR(VLOOKUP($E5,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="54">
-        <f>IF(VLOOKUP($E5,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E5,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J5" s="55" t="inlineStr">
-        <is>
-          <t>风险业务1部</t>
-        </is>
-      </c>
-      <c r="K5" s="55" t="inlineStr">
-        <is>
-          <t>风险业务5部</t>
-        </is>
-      </c>
-      <c r="L5" s="55" t="inlineStr">
-        <is>
-          <t>陈亮</t>
-        </is>
-      </c>
+      <c r="A5" s="53" t="n"/>
+      <c r="B5" s="54" t="n"/>
+      <c r="C5" s="54" t="n"/>
+      <c r="D5" s="54" t="n"/>
+      <c r="E5" s="54" t="n"/>
+      <c r="F5" s="54" t="n"/>
+      <c r="G5" s="54" t="n"/>
+      <c r="H5" s="54" t="n"/>
+      <c r="I5" s="54" t="n"/>
+      <c r="J5" s="55" t="n"/>
+      <c r="K5" s="55" t="n"/>
+      <c r="L5" s="55" t="n"/>
       <c r="M5" s="55" t="n"/>
-      <c r="N5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA5" s="55" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB5" s="56" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC5" s="54" t="inlineStr">
-        <is>
-          <t>2023.07-2023.12</t>
-        </is>
-      </c>
-      <c r="AD5" s="54" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE5" s="54">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A5, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF5" s="54">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A5, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="N5" s="55" t="n"/>
+      <c r="O5" s="55" t="n"/>
+      <c r="P5" s="55" t="n"/>
+      <c r="Q5" s="55" t="n"/>
+      <c r="R5" s="55" t="n"/>
+      <c r="S5" s="55" t="n"/>
+      <c r="T5" s="55" t="n"/>
+      <c r="U5" s="55" t="n"/>
+      <c r="V5" s="55" t="n"/>
+      <c r="W5" s="55" t="n"/>
+      <c r="X5" s="55" t="n"/>
+      <c r="Y5" s="55" t="n"/>
+      <c r="Z5" s="55" t="n"/>
+      <c r="AA5" s="55" t="n"/>
+      <c r="AB5" s="56" t="n"/>
+      <c r="AC5" s="54" t="n"/>
+      <c r="AD5" s="54" t="n"/>
+      <c r="AE5" s="54" t="n"/>
+      <c r="AF5" s="54" t="n"/>
       <c r="AG5" s="54" t="n"/>
-      <c r="AH5" s="54" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="AI5" s="54" t="inlineStr">
-        <is>
-          <t>孙麟舔13262758110</t>
-        </is>
-      </c>
-      <c r="AJ5" s="54" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK5" s="53" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH5" s="54" t="n"/>
+      <c r="AI5" s="54" t="n"/>
+      <c r="AJ5" s="54" t="n"/>
+      <c r="AK5" s="53" t="n"/>
     </row>
     <row r="6" ht="15.15" customHeight="1" s="59">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>上海农村商业银行股份有限公司2023年度企业级数据仓库和数据模型系统增选开发维护服务（C模式）框架</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>200-300</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>上海农商行</t>
-        </is>
-      </c>
-      <c r="F6" s="10">
-        <f>IFERROR(VLOOKUP($E6,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="10">
-        <f>IFERROR(VLOOKUP($E6,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="10">
-        <f>IFERROR(VLOOKUP($E6,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="10">
-        <f>IF(VLOOKUP($E6,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E6,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J6" s="10" t="inlineStr">
-        <is>
-          <t>金融业务5E部</t>
-        </is>
-      </c>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>梅燕</t>
-        </is>
-      </c>
-      <c r="N6" s="10" t="inlineStr">
-        <is>
-          <t>数据架构咨询规划，数据模型设计</t>
-        </is>
-      </c>
-      <c r="O6" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="P6" s="10" t="inlineStr">
-        <is>
-          <t>调度平台</t>
-        </is>
-      </c>
-      <c r="Q6" s="10" t="inlineStr">
-        <is>
-          <t>数据模型管理模块</t>
-        </is>
-      </c>
-      <c r="R6" s="10" t="inlineStr">
-        <is>
-          <t>数据模型，制度流程，制度流程</t>
-        </is>
-      </c>
-      <c r="S6" s="10" t="inlineStr">
-        <is>
-          <t>统一数据集市</t>
-        </is>
-      </c>
-      <c r="T6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W6" s="10" t="inlineStr">
-        <is>
-          <t>统一CRM</t>
-        </is>
-      </c>
-      <c r="X6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA6" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB6" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC6" s="10" t="inlineStr">
-        <is>
-          <t>2023.9-2023.12</t>
-        </is>
-      </c>
-      <c r="AD6" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE6" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A6, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF6" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A6, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
+      <c r="I6" s="10" t="n"/>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="n"/>
+      <c r="L6" s="10" t="n"/>
+      <c r="N6" s="10" t="n"/>
+      <c r="O6" s="10" t="n"/>
+      <c r="P6" s="10" t="n"/>
+      <c r="Q6" s="10" t="n"/>
+      <c r="R6" s="10" t="n"/>
+      <c r="S6" s="10" t="n"/>
+      <c r="T6" s="10" t="n"/>
+      <c r="U6" s="10" t="n"/>
+      <c r="V6" s="10" t="n"/>
+      <c r="W6" s="10" t="n"/>
+      <c r="X6" s="10" t="n"/>
+      <c r="Y6" s="10" t="n"/>
+      <c r="Z6" s="10" t="n"/>
+      <c r="AA6" s="10" t="n"/>
+      <c r="AB6" s="51" t="n"/>
+      <c r="AC6" s="10" t="n"/>
+      <c r="AD6" s="10" t="n"/>
+      <c r="AE6" s="10" t="n"/>
+      <c r="AF6" s="10" t="n"/>
       <c r="AG6" s="40" t="n"/>
-      <c r="AH6" s="40" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="AI6" s="40" t="inlineStr">
-        <is>
-          <t>焦郁17317825496</t>
-        </is>
-      </c>
-      <c r="AJ6" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK6" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="16" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1" s="59">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>东亚银行标签平台</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>东亚银行</t>
-        </is>
-      </c>
-      <c r="F7" s="10">
-        <f>IFERROR(VLOOKUP($E7,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="10">
-        <f>IFERROR(VLOOKUP($E7,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H7" s="10">
-        <f>IFERROR(VLOOKUP($E7,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="10">
-        <f>IF(VLOOKUP($E7,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E7,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J7" s="10" t="inlineStr">
-        <is>
-          <t>营销业务2部</t>
-        </is>
-      </c>
-      <c r="K7" s="10" t="inlineStr">
-        <is>
-          <t>营销业务部</t>
-        </is>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
-        <is>
-          <t>樊伟</t>
-        </is>
-      </c>
-      <c r="N7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T7" s="10" t="inlineStr">
-        <is>
-          <t>标签管理平台</t>
-        </is>
-      </c>
-      <c r="U7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y7" s="52" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA7" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB7" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC7" s="10" t="inlineStr">
-        <is>
-          <t>2023.09-2024.01</t>
-        </is>
-      </c>
-      <c r="AD7" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE7" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A7, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF7" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A7, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="10" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="10" t="n"/>
+      <c r="I7" s="10" t="n"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="10" t="n"/>
+      <c r="L7" s="10" t="n"/>
+      <c r="N7" s="10" t="n"/>
+      <c r="O7" s="10" t="n"/>
+      <c r="P7" s="10" t="n"/>
+      <c r="Q7" s="10" t="n"/>
+      <c r="R7" s="10" t="n"/>
+      <c r="S7" s="10" t="n"/>
+      <c r="T7" s="10" t="n"/>
+      <c r="U7" s="10" t="n"/>
+      <c r="V7" s="10" t="n"/>
+      <c r="W7" s="10" t="n"/>
+      <c r="X7" s="10" t="n"/>
+      <c r="Y7" s="52" t="n"/>
+      <c r="Z7" s="10" t="n"/>
+      <c r="AA7" s="10" t="n"/>
+      <c r="AB7" s="51" t="n"/>
+      <c r="AC7" s="10" t="n"/>
+      <c r="AD7" s="10" t="n"/>
+      <c r="AE7" s="10" t="n"/>
+      <c r="AF7" s="10" t="n"/>
       <c r="AG7" s="40" t="n"/>
-      <c r="AH7" s="40" t="inlineStr">
-        <is>
-          <t>华南</t>
-        </is>
-      </c>
-      <c r="AI7" s="40" t="inlineStr">
-        <is>
-          <t>罗军</t>
-        </is>
-      </c>
-      <c r="AJ7" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK7" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH7" s="40" t="n"/>
+      <c r="AI7" s="40" t="n"/>
+      <c r="AJ7" s="40" t="n"/>
+      <c r="AK7" s="16" t="n"/>
     </row>
     <row r="8" ht="15.15" customHeight="1" s="59">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>东莞银行数据治理项目</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>东莞银行</t>
-        </is>
-      </c>
-      <c r="F8" s="10">
-        <f>IFERROR(VLOOKUP($E8,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="10">
-        <f>IFERROR(VLOOKUP($E8,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H8" s="10">
-        <f>IFERROR(VLOOKUP($E8,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="10">
-        <f>IF(VLOOKUP($E8,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E8,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J8" s="10" t="inlineStr">
-        <is>
-          <t>数据资产管理部</t>
-        </is>
-      </c>
-      <c r="K8" s="10" t="inlineStr">
-        <is>
-          <t>数据资产管理1部</t>
-        </is>
-      </c>
-      <c r="L8" s="10" t="inlineStr">
-        <is>
-          <t>支文英</t>
-        </is>
-      </c>
-      <c r="N8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R8" s="10" t="inlineStr">
-        <is>
-          <t>数据标准，数据质量，元数据，数据安全，数据资产盘点，数据模型，主数据，制度流程，组织架构</t>
-        </is>
-      </c>
-      <c r="S8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA8" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB8" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC8" s="10" t="inlineStr">
-        <is>
-          <t>2023.01-2024.07</t>
-        </is>
-      </c>
-      <c r="AD8" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE8" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A8, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF8" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A8, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="10" t="n"/>
+      <c r="G8" s="10" t="n"/>
+      <c r="H8" s="10" t="n"/>
+      <c r="I8" s="10" t="n"/>
+      <c r="J8" s="10" t="n"/>
+      <c r="K8" s="10" t="n"/>
+      <c r="L8" s="10" t="n"/>
+      <c r="N8" s="10" t="n"/>
+      <c r="O8" s="10" t="n"/>
+      <c r="P8" s="10" t="n"/>
+      <c r="Q8" s="10" t="n"/>
+      <c r="R8" s="10" t="n"/>
+      <c r="S8" s="10" t="n"/>
+      <c r="T8" s="10" t="n"/>
+      <c r="U8" s="10" t="n"/>
+      <c r="V8" s="10" t="n"/>
+      <c r="W8" s="10" t="n"/>
+      <c r="X8" s="10" t="n"/>
+      <c r="Y8" s="10" t="n"/>
+      <c r="Z8" s="10" t="n"/>
+      <c r="AA8" s="10" t="n"/>
+      <c r="AB8" s="51" t="n"/>
+      <c r="AC8" s="10" t="n"/>
+      <c r="AD8" s="10" t="n"/>
+      <c r="AE8" s="10" t="n"/>
+      <c r="AF8" s="10" t="n"/>
       <c r="AG8" s="40" t="n"/>
-      <c r="AH8" s="40" t="inlineStr">
-        <is>
-          <t>华南</t>
-        </is>
-      </c>
-      <c r="AI8" s="40" t="inlineStr">
-        <is>
-          <t>钟青 13326892506</t>
-        </is>
-      </c>
-      <c r="AJ8" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK8" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH8" s="40" t="n"/>
+      <c r="AI8" s="40" t="n"/>
+      <c r="AJ8" s="40" t="n"/>
+      <c r="AK8" s="16" t="n"/>
     </row>
     <row r="9" ht="15.15" customHeight="1" s="59">
-      <c r="A9" s="10" t="inlineStr">
-        <is>
-          <t>中信财务数据治理和数据中台建设项目</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>300-400</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>中信财务</t>
-        </is>
-      </c>
-      <c r="F9" s="10">
-        <f>IFERROR(VLOOKUP($E9,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="10">
-        <f>IFERROR(VLOOKUP($E9,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="10">
-        <f>IFERROR(VLOOKUP($E9,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="10">
-        <f>IF(VLOOKUP($E9,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E9,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J9" s="10" t="inlineStr">
-        <is>
-          <t>金融业务9E部</t>
-        </is>
-      </c>
-      <c r="K9" s="10" t="inlineStr">
-        <is>
-          <t>数据资产管理2部</t>
-        </is>
-      </c>
-      <c r="L9" s="10" t="inlineStr">
-        <is>
-          <t>张悦</t>
-        </is>
-      </c>
-      <c r="N9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O9" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="P9" s="10" t="inlineStr">
-        <is>
-          <t>数据交换平台，调度平台，数据补录平台</t>
-        </is>
-      </c>
-      <c r="Q9" s="10" t="inlineStr">
-        <is>
-          <t>数据标准管理模块，元数据管理模块，数据质量管理模块，数据资产管理模块</t>
-        </is>
-      </c>
-      <c r="R9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S9" s="10" t="inlineStr">
-        <is>
-          <t>经营分析集市</t>
-        </is>
-      </c>
-      <c r="T9" s="10" t="inlineStr">
-        <is>
-          <t>指标梳理，指标库</t>
-        </is>
-      </c>
-      <c r="U9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V9" s="10" t="inlineStr">
-        <is>
-          <t>PC端管理驾驶舱，报表平台</t>
-        </is>
-      </c>
-      <c r="W9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA9" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB9" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC9" s="10" t="inlineStr">
-        <is>
-          <t>2023.08-2024.03</t>
-        </is>
-      </c>
-      <c r="AD9" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE9" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A9, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF9" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A9, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="10" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="10" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="10" t="n"/>
+      <c r="K9" s="10" t="n"/>
+      <c r="L9" s="10" t="n"/>
+      <c r="N9" s="10" t="n"/>
+      <c r="O9" s="10" t="n"/>
+      <c r="P9" s="10" t="n"/>
+      <c r="Q9" s="10" t="n"/>
+      <c r="R9" s="10" t="n"/>
+      <c r="S9" s="10" t="n"/>
+      <c r="T9" s="10" t="n"/>
+      <c r="U9" s="10" t="n"/>
+      <c r="V9" s="10" t="n"/>
+      <c r="W9" s="10" t="n"/>
+      <c r="X9" s="10" t="n"/>
+      <c r="Y9" s="10" t="n"/>
+      <c r="Z9" s="10" t="n"/>
+      <c r="AA9" s="10" t="n"/>
+      <c r="AB9" s="51" t="n"/>
+      <c r="AC9" s="10" t="n"/>
+      <c r="AD9" s="10" t="n"/>
+      <c r="AE9" s="10" t="n"/>
+      <c r="AF9" s="10" t="n"/>
       <c r="AG9" s="40" t="n"/>
-      <c r="AH9" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI9" s="40" t="inlineStr">
-        <is>
-          <t>王心成15086982266</t>
-        </is>
-      </c>
-      <c r="AJ9" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK9" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH9" s="40" t="n"/>
+      <c r="AI9" s="40" t="n"/>
+      <c r="AJ9" s="40" t="n"/>
+      <c r="AK9" s="16" t="n"/>
     </row>
     <row r="10" ht="15.15" customHeight="1" s="59">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>中化财务数据平台2023年优化升级项目</t>
-        </is>
-      </c>
-      <c r="B10" s="10" t="inlineStr">
-        <is>
-          <t>&lt;100</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>中化财务</t>
-        </is>
-      </c>
-      <c r="F10" s="10">
-        <f>IFERROR(VLOOKUP($E10,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="10">
-        <f>IFERROR(VLOOKUP($E10,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="10">
-        <f>IFERROR(VLOOKUP($E10,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="10">
-        <f>IF(VLOOKUP($E10,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E10,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J10" s="10" t="inlineStr">
-        <is>
-          <t>金融业务9E部</t>
-        </is>
-      </c>
-      <c r="K10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L10" s="10" t="inlineStr">
-        <is>
-          <t>孙迎鹏</t>
-        </is>
-      </c>
-      <c r="N10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O10" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="P10" s="10" t="inlineStr">
-        <is>
-          <t>调度平台</t>
-        </is>
-      </c>
-      <c r="Q10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S10" s="10" t="inlineStr">
-        <is>
-          <t>监管集市</t>
-        </is>
-      </c>
-      <c r="T10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V10" s="10" t="inlineStr">
-        <is>
-          <t>报表平台</t>
-        </is>
-      </c>
-      <c r="W10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y10" s="10" t="inlineStr">
-        <is>
-          <t>统一监管报送，1104，人行金融统计报送（大集中），人行利率报送，EAST</t>
-        </is>
-      </c>
-      <c r="Z10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA10" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB10" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC10" s="10" t="inlineStr">
-        <is>
-          <t>2023.08-2024.03</t>
-        </is>
-      </c>
-      <c r="AD10" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE10" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A10, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF10" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A10, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="10" t="n"/>
+      <c r="H10" s="10" t="n"/>
+      <c r="I10" s="10" t="n"/>
+      <c r="J10" s="10" t="n"/>
+      <c r="K10" s="10" t="n"/>
+      <c r="L10" s="10" t="n"/>
+      <c r="N10" s="10" t="n"/>
+      <c r="O10" s="10" t="n"/>
+      <c r="P10" s="10" t="n"/>
+      <c r="Q10" s="10" t="n"/>
+      <c r="R10" s="10" t="n"/>
+      <c r="S10" s="10" t="n"/>
+      <c r="T10" s="10" t="n"/>
+      <c r="U10" s="10" t="n"/>
+      <c r="V10" s="10" t="n"/>
+      <c r="W10" s="10" t="n"/>
+      <c r="X10" s="10" t="n"/>
+      <c r="Y10" s="10" t="n"/>
+      <c r="Z10" s="10" t="n"/>
+      <c r="AA10" s="10" t="n"/>
+      <c r="AB10" s="51" t="n"/>
+      <c r="AC10" s="10" t="n"/>
+      <c r="AD10" s="10" t="n"/>
+      <c r="AE10" s="10" t="n"/>
+      <c r="AF10" s="10" t="n"/>
       <c r="AG10" s="40" t="n"/>
-      <c r="AH10" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI10" s="40" t="inlineStr">
-        <is>
-          <t>付鹏飞18911998594</t>
-        </is>
-      </c>
-      <c r="AJ10" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK10" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH10" s="40" t="n"/>
+      <c r="AI10" s="40" t="n"/>
+      <c r="AJ10" s="40" t="n"/>
+      <c r="AK10" s="16" t="n"/>
     </row>
     <row r="11" ht="15.15" customHeight="1" s="59">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>中国银行应用软件支持服务（MUREX）项目</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>300-400</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>中国银行</t>
-        </is>
-      </c>
-      <c r="F11" s="10">
-        <f>IFERROR(VLOOKUP($E11,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="10">
-        <f>IFERROR(VLOOKUP($E11,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="10">
-        <f>IFERROR(VLOOKUP($E11,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="10">
-        <f>IF(VLOOKUP($E11,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E11,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J11" s="10" t="inlineStr">
-        <is>
-          <t>资金业务部</t>
-        </is>
-      </c>
-      <c r="K11" s="10" t="inlineStr">
-        <is>
-          <t>资金业务1部</t>
-        </is>
-      </c>
-      <c r="L11" s="10" t="inlineStr">
-        <is>
-          <t>康众</t>
-        </is>
-      </c>
-      <c r="N11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y11" s="52" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z11" s="10" t="inlineStr">
-        <is>
-          <t>资金管理系统</t>
-        </is>
-      </c>
-      <c r="AA11" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB11" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC11" s="10" t="inlineStr">
-        <is>
-          <t>2023.09-2024.06</t>
-        </is>
-      </c>
-      <c r="AD11" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE11" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A11, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF11" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A11, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="10" t="n"/>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="10" t="n"/>
+      <c r="H11" s="10" t="n"/>
+      <c r="I11" s="10" t="n"/>
+      <c r="J11" s="10" t="n"/>
+      <c r="K11" s="10" t="n"/>
+      <c r="L11" s="10" t="n"/>
+      <c r="N11" s="10" t="n"/>
+      <c r="O11" s="10" t="n"/>
+      <c r="P11" s="10" t="n"/>
+      <c r="Q11" s="10" t="n"/>
+      <c r="R11" s="10" t="n"/>
+      <c r="S11" s="10" t="n"/>
+      <c r="T11" s="10" t="n"/>
+      <c r="U11" s="10" t="n"/>
+      <c r="V11" s="10" t="n"/>
+      <c r="W11" s="10" t="n"/>
+      <c r="X11" s="10" t="n"/>
+      <c r="Y11" s="52" t="n"/>
+      <c r="Z11" s="10" t="n"/>
+      <c r="AA11" s="10" t="n"/>
+      <c r="AB11" s="51" t="n"/>
+      <c r="AC11" s="10" t="n"/>
+      <c r="AD11" s="10" t="n"/>
+      <c r="AE11" s="10" t="n"/>
+      <c r="AF11" s="10" t="n"/>
       <c r="AG11" s="40" t="n"/>
-      <c r="AH11" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI11" s="40" t="inlineStr">
-        <is>
-          <t>谷鑫虎15311932639</t>
-        </is>
-      </c>
-      <c r="AJ11" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK11" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH11" s="40" t="n"/>
+      <c r="AI11" s="40" t="n"/>
+      <c r="AJ11" s="40" t="n"/>
+      <c r="AK11" s="16" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="59">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>中国银行股份有限公司银行卡数据运营服务项目</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>400-500</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>中国银行卡中心</t>
-        </is>
-      </c>
-      <c r="F12" s="10">
-        <f>IFERROR(VLOOKUP($E12,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G12" s="10">
-        <f>IFERROR(VLOOKUP($E12,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="10">
-        <f>IFERROR(VLOOKUP($E12,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="10">
-        <f>IF(VLOOKUP($E12,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E12,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J12" s="10" t="inlineStr">
-        <is>
-          <t>咨询业务2A部</t>
-        </is>
-      </c>
-      <c r="K12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L12" s="10" t="inlineStr">
-        <is>
-          <t>贾浩</t>
-        </is>
-      </c>
-      <c r="N12" s="10" t="inlineStr">
-        <is>
-          <t>数据架构咨询规划</t>
-        </is>
-      </c>
-      <c r="O12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="P12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="W12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="X12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA12" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB12" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC12" s="10" t="inlineStr">
-        <is>
-          <t>2023.08-2024.08</t>
-        </is>
-      </c>
-      <c r="AD12" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE12" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A12, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF12" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A12, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="10" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="10" t="n"/>
+      <c r="K12" s="10" t="n"/>
+      <c r="L12" s="10" t="n"/>
+      <c r="N12" s="10" t="n"/>
+      <c r="O12" s="10" t="n"/>
+      <c r="P12" s="10" t="n"/>
+      <c r="Q12" s="10" t="n"/>
+      <c r="R12" s="10" t="n"/>
+      <c r="S12" s="10" t="n"/>
+      <c r="T12" s="10" t="n"/>
+      <c r="U12" s="10" t="n"/>
+      <c r="V12" s="10" t="n"/>
+      <c r="W12" s="10" t="n"/>
+      <c r="X12" s="10" t="n"/>
+      <c r="Y12" s="10" t="n"/>
+      <c r="Z12" s="10" t="n"/>
+      <c r="AA12" s="10" t="n"/>
+      <c r="AB12" s="51" t="n"/>
+      <c r="AC12" s="10" t="n"/>
+      <c r="AD12" s="10" t="n"/>
+      <c r="AE12" s="10" t="n"/>
+      <c r="AF12" s="10" t="n"/>
       <c r="AG12" s="40" t="n"/>
-      <c r="AH12" s="40" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="AI12" s="40" t="inlineStr">
-        <is>
-          <t>李莹 010-66595670</t>
-        </is>
-      </c>
-      <c r="AJ12" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK12" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH12" s="40" t="n"/>
+      <c r="AI12" s="40" t="n"/>
+      <c r="AJ12" s="40" t="n"/>
+      <c r="AK12" s="16" t="n"/>
     </row>
     <row r="13" ht="15.15" customHeight="1" s="59">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>红塔银行数据中台项目</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>100-200</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>红塔银行</t>
-        </is>
-      </c>
-      <c r="F13" s="10">
-        <f>IFERROR(VLOOKUP($E13,客户清单!B:G,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="10">
-        <f>IFERROR(VLOOKUP($E13,客户清单!B:G,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="10">
-        <f>IFERROR(VLOOKUP($E13,客户清单!B:G,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="10">
-        <f>IF(VLOOKUP($E13,客户清单!B:G,6,0)=0,"&lt;暂未更新&gt;",VLOOKUP($E13,客户清单!B:G,6,0))</f>
-        <v/>
-      </c>
-      <c r="J13" s="10" t="inlineStr">
-        <is>
-          <t>金融交付3E</t>
-        </is>
-      </c>
-      <c r="K13" s="10" t="inlineStr">
-        <is>
-          <t>金融交付3部</t>
-        </is>
-      </c>
-      <c r="L13" s="10" t="inlineStr">
-        <is>
-          <t>刘刚</t>
-        </is>
-      </c>
-      <c r="N13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="O13" s="10" t="inlineStr">
-        <is>
-          <t>数据仓库，实时数据平台，数据湖，数仓迁移</t>
-        </is>
-      </c>
-      <c r="P13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S13" s="10" t="inlineStr">
-        <is>
-          <t>报表集市，监管集市</t>
-        </is>
-      </c>
-      <c r="T13" s="10" t="inlineStr">
-        <is>
-          <t>指标管理平台，标签管理平台，指标梳理，标签梳理、指标库、标签库</t>
-        </is>
-      </c>
-      <c r="U13" s="10" t="inlineStr">
-        <is>
-          <t>数据服务平台</t>
-        </is>
-      </c>
-      <c r="V13" s="10" t="inlineStr">
-        <is>
-          <t>自助分析，PC端管理驾驶舱，报表平台</t>
-        </is>
-      </c>
-      <c r="W13" s="10" t="inlineStr">
-        <is>
-          <t>客户画像，营销平台</t>
-        </is>
-      </c>
-      <c r="X13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Y13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Z13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AA13" s="10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AB13" s="51" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AC13" s="10" t="inlineStr">
-        <is>
-          <t>2023.10-2024.12</t>
-        </is>
-      </c>
-      <c r="AD13" s="10" t="inlineStr">
-        <is>
-          <t>实施中</t>
-        </is>
-      </c>
-      <c r="AE13" s="10">
-        <f>IFERROR(HYPERLINK("#'通用补充信息'!A"&amp;MATCH(A13, 通用补充信息!A:A, 0), "&gt;&gt;&gt;通用补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
-      <c r="AF13" s="10">
-        <f>IFERROR(HYPERLINK("#'数据应用类补充信息'!A"&amp;MATCH(A13, 数据应用类补充信息!A:A, 0), "&gt;&gt;&gt;数据应用类补充信息&lt;&lt;&lt;"), "&gt;&gt;&gt;暂无补充&lt;&lt;&lt;")</f>
-        <v/>
-      </c>
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="10" t="n"/>
+      <c r="K13" s="10" t="n"/>
+      <c r="L13" s="10" t="n"/>
+      <c r="N13" s="10" t="n"/>
+      <c r="O13" s="10" t="n"/>
+      <c r="P13" s="10" t="n"/>
+      <c r="Q13" s="10" t="n"/>
+      <c r="R13" s="10" t="n"/>
+      <c r="S13" s="10" t="n"/>
+      <c r="T13" s="10" t="n"/>
+      <c r="U13" s="10" t="n"/>
+      <c r="V13" s="10" t="n"/>
+      <c r="W13" s="10" t="n"/>
+      <c r="X13" s="10" t="n"/>
+      <c r="Y13" s="10" t="n"/>
+      <c r="Z13" s="10" t="n"/>
+      <c r="AA13" s="10" t="n"/>
+      <c r="AB13" s="51" t="n"/>
+      <c r="AC13" s="10" t="n"/>
+      <c r="AD13" s="10" t="n"/>
+      <c r="AE13" s="10" t="n"/>
+      <c r="AF13" s="10" t="n"/>
       <c r="AG13" s="40" t="n"/>
-      <c r="AH13" s="40" t="inlineStr">
-        <is>
-          <t>西南</t>
-        </is>
-      </c>
-      <c r="AI13" s="40" t="inlineStr">
-        <is>
-          <t>梁红兵13577702763</t>
-        </is>
-      </c>
-      <c r="AJ13" s="40" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="AK13" s="16" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="AH13" s="40" t="n"/>
+      <c r="AI13" s="40" t="n"/>
+      <c r="AJ13" s="40" t="n"/>
+      <c r="AK13" s="16" t="n"/>
     </row>
     <row r="14" ht="15.15" customHeight="1" s="59">
       <c r="A14" s="10" t="n"/>
@@ -4248,23 +3060,23 @@
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I2"/>
-    <mergeCell ref="AE1:AF2"/>
-    <mergeCell ref="AG1:AH2"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="M1:AA1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AG1:AH2"/>
+    <mergeCell ref="AE1:AF2"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="E1:I2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M1:AA1"/>
     <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="AD3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="AD3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"已完成,实施中"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4467,21 +3279,23 @@
     <row r="4" ht="15" customFormat="1" customHeight="1" s="31">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>企业级数据仓库迁移项目（二期）项目</t>
+          <t>xxxxxx</t>
         </is>
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>大数据</t>
+          <t>xxxx1</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
         <is>
-          <t>CDP7.1.7</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>27</v>
+          <t>xx</t>
+        </is>
+      </c>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>xxxx</t>
+        </is>
       </c>
       <c r="E4" s="14" t="inlineStr">
         <is>
@@ -4495,37 +3309,37 @@
       </c>
       <c r="G4" s="14" t="inlineStr">
         <is>
-          <t>JMP</t>
+          <t>xxxxx</t>
         </is>
       </c>
       <c r="H4" s="14" t="inlineStr">
         <is>
-          <t>大数据平台开发IDE(致宇)</t>
+          <t>xx</t>
         </is>
       </c>
       <c r="I4" s="14" t="inlineStr">
         <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="J4" s="14" t="inlineStr">
+        <is>
           <t>/</t>
         </is>
       </c>
-      <c r="J4" s="14" t="inlineStr">
+      <c r="K4" s="14" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
-      <c r="K4" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
       <c r="L4" s="14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>xxx</t>
         </is>
       </c>
       <c r="M4" s="14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>xxxxx-xxxxx</t>
         </is>
       </c>
       <c r="N4" s="14" t="inlineStr">
@@ -4536,12 +3350,12 @@
       <c r="O4" s="14" t="n"/>
       <c r="P4" s="14" t="inlineStr">
         <is>
-          <t>监管报送，管理驾驶舱</t>
+          <t>/</t>
         </is>
       </c>
       <c r="Q4" s="14" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>/</t>
         </is>
       </c>
       <c r="R4" s="14" t="inlineStr">
@@ -4551,986 +3365,240 @@
       </c>
       <c r="S4" s="14" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>GuassDWS</t>
         </is>
       </c>
       <c r="T4" s="16" t="inlineStr">
         <is>
-          <t>2022.09-2024.04</t>
+          <t>2020.07-2024/11</t>
         </is>
       </c>
       <c r="U4" s="16" t="inlineStr">
         <is>
-          <t>新老并行验证</t>
+          <t>需求分析</t>
         </is>
       </c>
       <c r="V4" s="14" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>/</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="59">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>上海农商行2023年度内部评级系统、风险加权资产计量系统（C模式）框架协议（2023.3.24-2024.6.30）-2023年结算</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>ORACLE</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>19c</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M5" s="13" t="inlineStr">
-        <is>
-          <t>Redhat7.7</t>
-        </is>
-      </c>
-      <c r="N5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="13" t="n"/>
+      <c r="E5" s="13" t="n"/>
+      <c r="F5" s="13" t="n"/>
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="13" t="n"/>
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="13" t="n"/>
+      <c r="K5" s="13" t="n"/>
+      <c r="L5" s="13" t="n"/>
+      <c r="M5" s="13" t="n"/>
+      <c r="N5" s="13" t="n"/>
       <c r="O5" s="13" t="n"/>
-      <c r="P5" s="13" t="inlineStr">
-        <is>
-          <t>对公授信，个人贷款</t>
-        </is>
-      </c>
-      <c r="Q5" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R5" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U5" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V5" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P5" s="13" t="n"/>
+      <c r="Q5" s="13" t="n"/>
+      <c r="R5" s="13" t="n"/>
+      <c r="S5" s="13" t="n"/>
+      <c r="T5" s="13" t="n"/>
+      <c r="U5" s="13" t="n"/>
+      <c r="V5" s="13" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="59">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>上海农村商业银行股份有限公司2023年度企业级数据仓库和数据模型系统增选开发维护服务（C模式）框架</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Hadoop</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>CDP</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>cloudera</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K6" s="13" t="inlineStr">
-        <is>
-          <t>erwin</t>
-        </is>
-      </c>
-      <c r="L6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N6" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="13" t="n"/>
+      <c r="E6" s="13" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="13" t="n"/>
+      <c r="L6" s="13" t="n"/>
+      <c r="M6" s="13" t="n"/>
+      <c r="N6" s="13" t="n"/>
       <c r="O6" s="13" t="n"/>
-      <c r="P6" s="13" t="inlineStr">
-        <is>
-          <t>监管报送，管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q6" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R6" s="14" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="S6" s="13" t="inlineStr">
-        <is>
-          <t>CDP</t>
-        </is>
-      </c>
-      <c r="T6" s="13" t="inlineStr">
-        <is>
-          <t>2022.1-2023.12</t>
-        </is>
-      </c>
-      <c r="U6" s="13" t="inlineStr">
-        <is>
-          <t>并行阶段</t>
-        </is>
-      </c>
-      <c r="V6" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P6" s="13" t="n"/>
+      <c r="Q6" s="14" t="n"/>
+      <c r="R6" s="14" t="n"/>
+      <c r="S6" s="13" t="n"/>
+      <c r="T6" s="13" t="n"/>
+      <c r="U6" s="13" t="n"/>
+      <c r="V6" s="13" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="59">
-      <c r="A7" s="28" t="inlineStr">
-        <is>
-          <t>东亚银行标签平台</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>argodb</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M7" s="13" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A7" s="28" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
+      <c r="L7" s="13" t="n"/>
+      <c r="M7" s="13" t="n"/>
+      <c r="N7" s="13" t="n"/>
       <c r="O7" s="13" t="n"/>
-      <c r="P7" s="13" t="inlineStr">
-        <is>
-          <t>营销平台，crm</t>
-        </is>
-      </c>
-      <c r="Q7" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R7" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P7" s="13" t="n"/>
+      <c r="Q7" s="13" t="n"/>
+      <c r="R7" s="13" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="13" t="n"/>
+      <c r="U7" s="13" t="n"/>
+      <c r="V7" s="13" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="59">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>东莞银行数据治理项目</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="13" t="n"/>
+      <c r="M8" s="13" t="n"/>
+      <c r="N8" s="13" t="n"/>
       <c r="O8" s="13" t="n"/>
-      <c r="P8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="R8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="S8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P8" s="13" t="n"/>
+      <c r="Q8" s="13" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="13" t="n"/>
+      <c r="U8" s="13" t="n"/>
+      <c r="V8" s="13" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="59">
-      <c r="A9" s="28" t="inlineStr">
-        <is>
-          <t>中信财务数据治理和数据中台建设项目</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>19C</t>
-        </is>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F9" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="G9" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台v8.0</t>
-        </is>
-      </c>
-      <c r="H9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I9" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台v5.5</t>
-        </is>
-      </c>
-      <c r="J9" s="13" t="inlineStr">
-        <is>
-          <t>长亮科技数据资产管理平台v5.0</t>
-        </is>
-      </c>
-      <c r="K9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L9" s="13" t="inlineStr">
-        <is>
-          <t>阿里云ECS</t>
-        </is>
-      </c>
-      <c r="M9" s="13" t="inlineStr">
-        <is>
-          <t>ubantu 22</t>
-        </is>
-      </c>
-      <c r="N9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A9" s="28" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
+      <c r="H9" s="13" t="n"/>
+      <c r="I9" s="13" t="n"/>
+      <c r="J9" s="13" t="n"/>
+      <c r="K9" s="13" t="n"/>
+      <c r="L9" s="13" t="n"/>
+      <c r="M9" s="13" t="n"/>
+      <c r="N9" s="13" t="n"/>
       <c r="O9" s="13" t="n"/>
-      <c r="P9" s="13" t="inlineStr">
-        <is>
-          <t>监管报送，流动性管理系统，管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q9" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R9" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V9" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P9" s="13" t="n"/>
+      <c r="Q9" s="13" t="n"/>
+      <c r="R9" s="13" t="n"/>
+      <c r="S9" s="13" t="n"/>
+      <c r="T9" s="13" t="n"/>
+      <c r="U9" s="13" t="n"/>
+      <c r="V9" s="13" t="n"/>
     </row>
     <row r="10" ht="15" customFormat="1" customHeight="1" s="31">
-      <c r="A10" s="32" t="inlineStr">
-        <is>
-          <t>中化财务数据平台2023年优化升级项目</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>Oracle 11.2.0.4.0</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>长亮科技企业级调度平台v2.0</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K10" s="14" t="inlineStr">
-        <is>
-          <t>自主研发</t>
-        </is>
-      </c>
-      <c r="L10" s="14" t="inlineStr">
-        <is>
-          <t>centos 7.4</t>
-        </is>
-      </c>
-      <c r="M10" s="14" t="inlineStr">
-        <is>
-          <t>windows10</t>
-        </is>
-      </c>
-      <c r="N10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A10" s="32" t="n"/>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="14" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+      <c r="L10" s="14" t="n"/>
+      <c r="M10" s="14" t="n"/>
+      <c r="N10" s="14" t="n"/>
       <c r="O10" s="14" t="n"/>
-      <c r="P10" s="14" t="inlineStr">
-        <is>
-          <t>监管报送，管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q10" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R10" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S10" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T10" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U10" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V10" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P10" s="14" t="n"/>
+      <c r="Q10" s="14" t="n"/>
+      <c r="R10" s="14" t="n"/>
+      <c r="S10" s="14" t="n"/>
+      <c r="T10" s="37" t="n"/>
+      <c r="U10" s="37" t="n"/>
+      <c r="V10" s="14" t="n"/>
     </row>
     <row r="11" ht="15" customFormat="1" customHeight="1" s="31">
-      <c r="A11" s="14" t="inlineStr">
-        <is>
-          <t>中国银行应用软件支持服务（MUREX）项目</t>
-        </is>
-      </c>
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>ORACLE</t>
-        </is>
-      </c>
-      <c r="C11" s="14" t="inlineStr">
-        <is>
-          <t>11G</t>
-        </is>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L11" s="14" t="inlineStr">
-        <is>
-          <t>PC SERVER</t>
-        </is>
-      </c>
-      <c r="M11" s="14" t="inlineStr">
-        <is>
-          <t>RHEL6.6 x86-64</t>
-        </is>
-      </c>
-      <c r="N11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A11" s="14" t="n"/>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="14" t="n"/>
+      <c r="D11" s="14" t="n"/>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14" t="n"/>
+      <c r="G11" s="14" t="n"/>
+      <c r="H11" s="14" t="n"/>
+      <c r="I11" s="14" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
+      <c r="L11" s="14" t="n"/>
+      <c r="M11" s="14" t="n"/>
+      <c r="N11" s="14" t="n"/>
       <c r="O11" s="14" t="n"/>
-      <c r="P11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="Q11" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R11" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S11" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T11" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U11" s="37" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V11" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P11" s="14" t="n"/>
+      <c r="Q11" s="14" t="n"/>
+      <c r="R11" s="14" t="n"/>
+      <c r="S11" s="14" t="n"/>
+      <c r="T11" s="37" t="n"/>
+      <c r="U11" s="37" t="n"/>
+      <c r="V11" s="14" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="59">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t>中国银行股份有限公司银行卡数据运营服务项目</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="H12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="I12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="J12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="K12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="L12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A12" s="14" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="13" t="n"/>
+      <c r="I12" s="13" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="13" t="n"/>
+      <c r="L12" s="13" t="n"/>
+      <c r="M12" s="13" t="n"/>
+      <c r="N12" s="13" t="n"/>
       <c r="O12" s="13" t="n"/>
-      <c r="P12" s="14" t="inlineStr">
-        <is>
-          <t>评分卡、一表通、EAST、1104、RDA</t>
-        </is>
-      </c>
-      <c r="Q12" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R12" s="13" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="S12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="T12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="U12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="V12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="P12" s="14" t="n"/>
+      <c r="Q12" s="13" t="n"/>
+      <c r="R12" s="13" t="n"/>
+      <c r="S12" s="13" t="n"/>
+      <c r="T12" s="13" t="n"/>
+      <c r="U12" s="13" t="n"/>
+      <c r="V12" s="13" t="n"/>
     </row>
     <row r="13" ht="15" customFormat="1" customHeight="1" s="31">
-      <c r="A13" s="14" t="inlineStr">
-        <is>
-          <t>红塔银行数据中台项目</t>
-        </is>
-      </c>
-      <c r="B13" s="14" t="inlineStr">
-        <is>
-          <t>MPP</t>
-        </is>
-      </c>
-      <c r="C13" s="14" t="inlineStr">
-        <is>
-          <t>Maxcompute</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14" t="inlineStr">
-        <is>
-          <t>阿里云</t>
-        </is>
-      </c>
-      <c r="F13" s="14" t="inlineStr">
-        <is>
-          <t>帆软BI</t>
-        </is>
-      </c>
-      <c r="G13" s="14" t="inlineStr">
-        <is>
-          <t>dataworks</t>
-        </is>
-      </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>dataworks</t>
-        </is>
-      </c>
-      <c r="I13" s="14" t="inlineStr">
-        <is>
-          <t>长亮科技数据交换平台v2.0</t>
-        </is>
-      </c>
-      <c r="J13" s="14" t="inlineStr">
-        <is>
-          <t>神马</t>
-        </is>
-      </c>
-      <c r="K13" s="14" t="inlineStr">
-        <is>
-          <t>阿里云</t>
-        </is>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>阿里云</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
-        <is>
-          <t>麒麟V10</t>
-        </is>
-      </c>
-      <c r="N13" s="14" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A13" s="14" t="n"/>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="14" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14" t="n"/>
+      <c r="G13" s="14" t="n"/>
+      <c r="H13" s="14" t="n"/>
+      <c r="I13" s="14" t="n"/>
+      <c r="J13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+      <c r="L13" s="14" t="n"/>
+      <c r="M13" s="14" t="n"/>
+      <c r="N13" s="14" t="n"/>
       <c r="O13" s="14" t="n"/>
-      <c r="P13" s="14" t="inlineStr">
-        <is>
-          <t>监管报送，管理驾驶舱</t>
-        </is>
-      </c>
-      <c r="Q13" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="R13" s="14" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="S13" s="14" t="inlineStr">
-        <is>
-          <t>Maxcompute</t>
-        </is>
-      </c>
-      <c r="T13" s="37" t="inlineStr">
-        <is>
-          <t>2023.11-2024.12</t>
-        </is>
-      </c>
-      <c r="U13" s="37" t="inlineStr">
-        <is>
-          <t>需求分析</t>
-        </is>
-      </c>
-      <c r="V13" s="14" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
+      <c r="P13" s="14" t="n"/>
+      <c r="Q13" s="14" t="n"/>
+      <c r="R13" s="14" t="n"/>
+      <c r="S13" s="14" t="n"/>
+      <c r="T13" s="37" t="n"/>
+      <c r="U13" s="37" t="n"/>
+      <c r="V13" s="14" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="59">
       <c r="A14" s="13" t="n"/>
@@ -6830,8 +4898,8 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="B2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
   <hyperlinks>
@@ -6936,7 +5004,7 @@
     <row r="4" ht="15" customFormat="1" customHeight="1" s="19">
       <c r="A4" s="26" t="inlineStr">
         <is>
-          <t>企业级数据仓库迁移项目（二期）项目</t>
+          <t>xxxxxx</t>
         </is>
       </c>
       <c r="B4" s="26" t="inlineStr">
@@ -6961,350 +5029,104 @@
       </c>
       <c r="F4" s="26" t="inlineStr">
         <is>
-          <t>数据仓库</t>
+          <t>/</t>
         </is>
       </c>
       <c r="G4" s="26" t="inlineStr">
         <is>
-          <t>Teradata</t>
+          <t>xxxxx-xxxxx</t>
         </is>
       </c>
       <c r="H4" s="26" t="n"/>
     </row>
     <row r="5" ht="15" customFormat="1" customHeight="1" s="20">
-      <c r="A5" s="27" t="inlineStr">
-        <is>
-          <t>上海农商行2023年度内部评级系统、风险加权资产计量系统（C模式）框架协议（2023.3.24-2024.6.30）-2023年结算</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C5" s="27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D5" s="27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E5" s="27" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F5" s="27" t="inlineStr">
-        <is>
-          <t>ODS</t>
-        </is>
-      </c>
-      <c r="G5" s="27" t="inlineStr">
-        <is>
-          <t>安硕</t>
-        </is>
-      </c>
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n"/>
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
       <c r="H5" s="27" t="n"/>
     </row>
     <row r="6" ht="15" customFormat="1" customHeight="1" s="19">
-      <c r="A6" s="28" t="inlineStr">
-        <is>
-          <t>上海农村商业银行股份有限公司2023年度企业级数据仓库和数据模型系统增选开发维护服务（C模式）框架</t>
-        </is>
-      </c>
-      <c r="B6" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C6" s="26" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D6" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E6" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F6" s="26" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G6" s="26" t="inlineStr">
-        <is>
-          <t>TD</t>
-        </is>
-      </c>
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="26" t="n"/>
+      <c r="C6" s="26" t="n"/>
+      <c r="D6" s="26" t="n"/>
+      <c r="E6" s="26" t="n"/>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="26" t="n"/>
       <c r="H6" s="26" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="59">
-      <c r="A7" s="28" t="inlineStr">
-        <is>
-          <t>东亚银行标签平台</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F7" s="13" t="inlineStr">
-        <is>
-          <t>大数据平台</t>
-        </is>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A7" s="28" t="n"/>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="13" t="n"/>
+      <c r="G7" s="13" t="n"/>
       <c r="H7" s="13" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="59">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>东莞银行数据治理项目</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G8" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
       <c r="H8" s="13" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="59">
-      <c r="A9" s="26" t="inlineStr">
-        <is>
-          <t>中信财务数据治理和数据中台建设项目</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F9" s="13" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G9" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A9" s="26" t="n"/>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="G9" s="13" t="n"/>
       <c r="H9" s="13" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1" s="59">
-      <c r="A10" s="26" t="inlineStr">
-        <is>
-          <t>中化财务数据平台2023年优化升级项目</t>
-        </is>
-      </c>
-      <c r="B10" s="26" t="inlineStr">
-        <is>
-          <t>SmartBI</t>
-        </is>
-      </c>
-      <c r="C10" s="26" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D10" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="26" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F10" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G10" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A10" s="26" t="n"/>
+      <c r="B10" s="26" t="n"/>
+      <c r="C10" s="26" t="n"/>
+      <c r="D10" s="26" t="n"/>
+      <c r="E10" s="26" t="n"/>
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="26" t="n"/>
       <c r="H10" s="26" t="n"/>
     </row>
     <row r="11" ht="15" customFormat="1" customHeight="1" s="19">
-      <c r="A11" s="26" t="inlineStr">
-        <is>
-          <t>中国银行应用软件支持服务（MUREX）项目</t>
-        </is>
-      </c>
-      <c r="B11" s="26" t="inlineStr">
-        <is>
-          <t>Datamart</t>
-        </is>
-      </c>
-      <c r="C11" s="26" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E11" s="26" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F11" s="26" t="inlineStr">
-        <is>
-          <t>外部导入，手工簿记</t>
-        </is>
-      </c>
-      <c r="G11" s="26" t="inlineStr">
-        <is>
-          <t>易九州</t>
-        </is>
-      </c>
+      <c r="A11" s="26" t="n"/>
+      <c r="B11" s="26" t="n"/>
+      <c r="C11" s="26" t="n"/>
+      <c r="D11" s="26" t="n"/>
+      <c r="E11" s="26" t="n"/>
+      <c r="F11" s="26" t="n"/>
+      <c r="G11" s="26" t="n"/>
       <c r="H11" s="26" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" s="59">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>中国银行股份有限公司银行卡数据运营服务项目</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="D12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F12" s="13" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G12" s="13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
       <c r="H12" s="13" t="n"/>
     </row>
     <row r="13" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A13" s="26" t="inlineStr">
-        <is>
-          <t>红塔银行数据中台项目</t>
-        </is>
-      </c>
-      <c r="B13" s="27" t="inlineStr">
-        <is>
-          <t>帆软BI</t>
-        </is>
-      </c>
-      <c r="C13" s="27" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="D13" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="27" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F13" s="27" t="inlineStr">
-        <is>
-          <t>数据仓库</t>
-        </is>
-      </c>
-      <c r="G13" s="27" t="inlineStr">
-        <is>
-          <t>先数</t>
-        </is>
-      </c>
+      <c r="A13" s="26" t="n"/>
+      <c r="B13" s="27" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" s="59">
@@ -7851,8 +5673,8 @@
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="expression" priority="4" dxfId="0">
@@ -8710,7 +6532,7 @@
     <row r="64" ht="15" customHeight="1" s="59"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="F2:F3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F2:F3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"北京市,上海市,天津市,重庆市,黑龙江省,辽宁省,吉林省,河北省,河南省,湖北省,湖南省,山东省,山西省,陕西省,安徽省,浙江省,江苏省,福建省,广东省,海南省,四川省,云南省,贵州省,青海省,甘肃省,江西省,台湾省,内蒙古自治区,宁夏回族自治区,新疆维吾尔自治区,西藏自治区,广西壮族自治区,香港特别行政区、澳门特别行政区,香港特别行政区、澳门特别行政区"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8720,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9318,7 +7140,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10357,22 +8179,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B56:B68"/>
+    <mergeCell ref="B88:B100"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B74:B87"/>
+    <mergeCell ref="A56:A100"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="B4:B10"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A101:B103"/>
+    <mergeCell ref="B69:B73"/>
     <mergeCell ref="A27:A55"/>
-    <mergeCell ref="A56:A100"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B26"/>
     <mergeCell ref="B27:B48"/>
-    <mergeCell ref="A101:B103"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B56:B68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B74:B87"/>
-    <mergeCell ref="B88:B100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
